--- a/final_export_data/total_barycenter/total_barycenter.xlsx
+++ b/final_export_data/total_barycenter/total_barycenter.xlsx
@@ -471,14 +471,14 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.671681913070474</v>
+        <v>1.908910812038393</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8065995878590213</v>
+        <v>1.03078322427861</v>
       </c>
     </row>
     <row r="3">
@@ -487,14 +487,14 @@
         <v>0.002004008016032064</v>
       </c>
       <c r="C3" t="n">
-        <v>1.621682593325601</v>
+        <v>1.860054641329576</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>0.002004008016032064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7402914654742989</v>
+        <v>0.9777939715554007</v>
       </c>
     </row>
     <row r="4">
@@ -503,14 +503,14 @@
         <v>0.004008016032064128</v>
       </c>
       <c r="C4" t="n">
-        <v>1.536425483694632</v>
+        <v>1.777411514340127</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>0.004008016032064128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6290537067287564</v>
+        <v>0.8861015334715002</v>
       </c>
     </row>
     <row r="5">
@@ -519,14 +519,14 @@
         <v>0.006012024048096191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.436865068352808</v>
+        <v>1.682981648493774</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0.006012024048096191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5046006136594139</v>
+        <v>0.7775577651782608</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
         <v>0.008016032064128256</v>
       </c>
       <c r="C6" t="n">
-        <v>1.340256687887822</v>
+        <v>1.59561305365705</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>0.008016032064128256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3945397208951326</v>
+        <v>0.6728962181048896</v>
       </c>
     </row>
     <row r="7">
@@ -551,14 +551,14 @@
         <v>0.01002004008016032</v>
       </c>
       <c r="C7" t="n">
-        <v>1.255606545858591</v>
+        <v>1.525294936398815</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>0.01002004008016032</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3131562884756122</v>
+        <v>0.5860968429894315</v>
       </c>
     </row>
     <row r="8">
@@ -567,14 +567,14 @@
         <v>0.01202404809619238</v>
       </c>
       <c r="C8" t="n">
-        <v>1.185099230251405</v>
+        <v>1.47333457645481</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>0.01202404809619238</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2607021989905288</v>
+        <v>0.5232328973551711</v>
       </c>
     </row>
     <row r="9">
@@ -583,14 +583,14 @@
         <v>0.01402805611222445</v>
       </c>
       <c r="C9" t="n">
-        <v>1.127698740605145</v>
+        <v>1.435830629811989</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>0.01402805611222445</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2285942387220646</v>
+        <v>0.4839728338124774</v>
       </c>
     </row>
     <row r="10">
@@ -599,14 +599,14 @@
         <v>0.01603206412825651</v>
       </c>
       <c r="C10" t="n">
-        <v>1.081636812966527</v>
+        <v>1.407393047055237</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>0.01603206412825651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2058719707427054</v>
+        <v>0.463618551505334</v>
       </c>
     </row>
     <row r="11">
@@ -615,14 +615,14 @@
         <v>0.01803607214428857</v>
       </c>
       <c r="C11" t="n">
-        <v>1.045213075044327</v>
+        <v>1.383648502120789</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0.01803607214428857</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1837218441117709</v>
+        <v>0.4550394225789022</v>
       </c>
     </row>
     <row r="12">
@@ -631,14 +631,14 @@
         <v>0.02004008016032064</v>
       </c>
       <c r="C12" t="n">
-        <v>1.016846198583635</v>
+        <v>1.362324656274653</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>0.02004008016032064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1572423563475525</v>
+        <v>0.4507222839396678</v>
       </c>
     </row>
     <row r="13">
@@ -647,14 +647,14 @@
         <v>0.0220440881763527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9950963242463123</v>
+        <v>1.343183191309028</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>0.0220440881763527</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1251169262546666</v>
+        <v>0.4447515969891811</v>
       </c>
     </row>
     <row r="14">
@@ -663,14 +663,14 @@
         <v>0.02404809619238477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9787120166124998</v>
+        <v>1.32711789123397</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>0.02404809619238477</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08825206006589752</v>
+        <v>0.4339420033274009</v>
       </c>
     </row>
     <row r="15">
@@ -679,14 +679,14 @@
         <v>0.02605210420841683</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9666125640431139</v>
+        <v>1.315063577002499</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>0.02605210420841683</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04832661163268247</v>
+        <v>0.4176738404553693</v>
       </c>
     </row>
     <row r="16">
@@ -695,14 +695,14 @@
         <v>0.02805611222444889</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9577541856250513</v>
+        <v>1.307280149127657</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>0.02805611222444889</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006810258323642298</v>
+        <v>0.3967807902228526</v>
       </c>
     </row>
     <row r="17">
@@ -711,14 +711,14 @@
         <v>0.03006012024048096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9509088324581683</v>
+        <v>1.303169586605818</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>0.03006012024048096</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03540542638220917</v>
+        <v>0.3722973504470949</v>
       </c>
     </row>
     <row r="18">
@@ -727,14 +727,14 @@
         <v>0.03206412825651302</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9445159173650662</v>
+        <v>1.301556029560877</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>0.03206412825651302</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.07787520894439491</v>
+        <v>0.3447239789573208</v>
       </c>
     </row>
     <row r="19">
@@ -743,14 +743,14 @@
         <v>0.03406813627254509</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9367475975501</v>
+        <v>1.301067829498711</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>0.03406813627254509</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1202850853040017</v>
+        <v>0.3140026686725105</v>
       </c>
     </row>
     <row r="20">
@@ -759,14 +759,14 @@
         <v>0.03607214428857715</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9258144077971472</v>
+        <v>1.300387379297697</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>0.03607214428857715</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1622364457815707</v>
+        <v>0.279968460193426</v>
       </c>
     </row>
     <row r="21">
@@ -775,14 +775,14 @@
         <v>0.03807615230460921</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9104202881307766</v>
+        <v>1.298331568117242</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>0.03807615230460921</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2032259784240599</v>
+        <v>0.2428280083229475</v>
       </c>
     </row>
     <row r="22">
@@ -791,14 +791,14 @@
         <v>0.04008016032064128</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8901571063808629</v>
+        <v>1.293881875458188</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>0.04008016032064128</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.242735127139967</v>
+        <v>0.203240465087007</v>
       </c>
     </row>
     <row r="23">
@@ -807,14 +807,14 @@
         <v>0.04208416833667334</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8656338578587939</v>
+        <v>1.286272254501434</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>0.04208416833667334</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2803093109998999</v>
+        <v>0.1619803900308524</v>
       </c>
     </row>
     <row r="24">
@@ -823,14 +823,14 @@
         <v>0.04408817635270541</v>
       </c>
       <c r="C24" t="n">
-        <v>0.838294345575425</v>
+        <v>1.275121649354258</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>0.04408817635270541</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.3155732462351101</v>
+        <v>0.1196090506145829</v>
       </c>
     </row>
     <row r="25">
@@ -839,14 +839,14 @@
         <v>0.04609218436873747</v>
       </c>
       <c r="C25" t="n">
-        <v>0.810033283885257</v>
+        <v>1.260501097260424</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>0.04609218436873747</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.3482052642922513</v>
+        <v>0.07662622333299239</v>
       </c>
     </row>
     <row r="26">
@@ -855,14 +855,14 @@
         <v>0.04809619238476953</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7827598254286323</v>
+        <v>1.242844271515069</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>0.04809619238476953</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.3779131524392698</v>
+        <v>0.0340223694092405</v>
       </c>
     </row>
     <row r="27">
@@ -871,14 +871,14 @@
         <v>0.0501002004008016</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7580222482299914</v>
+        <v>1.222740918928824</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>0.0501002004008016</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4044618684857551</v>
+        <v>-0.00643083479885319</v>
       </c>
     </row>
     <row r="28">
@@ -887,14 +887,14 @@
         <v>0.05210420841683366</v>
       </c>
       <c r="C28" t="n">
-        <v>0.736763633974983</v>
+        <v>1.200738295437028</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>0.05210420841683366</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4277598689763952</v>
+        <v>-0.04270506067243995</v>
       </c>
     </row>
     <row r="29">
@@ -903,14 +903,14 @@
         <v>0.05410821643286573</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7192698802514207</v>
+        <v>1.1772546199801</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>0.05410821643286573</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4479397246275737</v>
+        <v>-0.07363546272157696</v>
       </c>
     </row>
     <row r="30">
@@ -919,14 +919,14 @@
         <v>0.05611222444889779</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7052964207651764</v>
+        <v>1.15261321068802</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>0.05611222444889779</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.465346811461934</v>
+        <v>-0.09976006757877912</v>
       </c>
     </row>
     <row r="31">
@@ -935,14 +935,14 @@
         <v>0.05811623246492986</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6942685291413251</v>
+        <v>1.127126161007793</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>0.05811623246492986</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.480435210617877</v>
+        <v>-0.123177373313852</v>
       </c>
     </row>
     <row r="32">
@@ -951,14 +951,14 @@
         <v>0.06012024048096192</v>
       </c>
       <c r="C32" t="n">
-        <v>0.685411340041075</v>
+        <v>1.101154594262773</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>0.06012024048096192</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4936570312561233</v>
+        <v>-0.1465400368259043</v>
       </c>
     </row>
     <row r="33">
@@ -967,14 +967,14 @@
         <v>0.06212424849699398</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6777485801096417</v>
+        <v>1.075099472859562</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>0.06212424849699398</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5054318549251676</v>
+        <v>-0.1719288706536322</v>
       </c>
     </row>
     <row r="34">
@@ -983,14 +983,14 @@
         <v>0.06412825651302605</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6700565880328542</v>
+        <v>1.049324274840337</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>0.06412825651302605</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5161876689758056</v>
+        <v>-0.2002780711756408</v>
       </c>
     </row>
     <row r="35">
@@ -999,14 +999,14 @@
         <v>0.06613226452905811</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6609359888252093</v>
+        <v>1.024056627416731</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>0.06613226452905811</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5264165966933645</v>
+        <v>-0.2314788563754563</v>
       </c>
     </row>
     <row r="36">
@@ -1015,14 +1015,14 @@
         <v>0.06813627254509018</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6490790424248037</v>
+        <v>0.9993541017484532</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>0.06813627254509018</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5366974382004503</v>
+        <v>-0.2648161563450485</v>
       </c>
     </row>
     <row r="37">
@@ -1031,14 +1031,14 @@
         <v>0.07014028056112225</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6336370492987036</v>
+        <v>0.9751816856482493</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>0.07014028056112225</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5476774566410851</v>
+        <v>-0.2993234473849949</v>
       </c>
     </row>
     <row r="38">
@@ -1047,14 +1047,14 @@
         <v>0.0721442885771543</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6144596485634561</v>
+        <v>0.9515444105984235</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>0.0721442885771543</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5600200678684035</v>
+        <v>-0.3338805471165547</v>
       </c>
     </row>
     <row r="39">
@@ -1063,14 +1063,14 @@
         <v>0.07414829659318636</v>
       </c>
       <c r="C39" t="n">
-        <v>0.59205699848798</v>
+        <v>0.928557008279281</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
         <v>0.07414829659318636</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5743046473610148</v>
+        <v>-0.3671522273065487</v>
       </c>
     </row>
     <row r="40">
@@ -1079,14 +1079,14 @@
         <v>0.07615230460921843</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5673426764826199</v>
+        <v>0.9063997098947905</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>0.07615230460921843</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5908792212360316</v>
+        <v>-0.3976243989404646</v>
       </c>
     </row>
     <row r="41">
@@ -1095,14 +1095,14 @@
         <v>0.0781563126252505</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5413785674903318</v>
+        <v>0.8852185798851533</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>0.0781563126252505</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6097203535220046</v>
+        <v>-0.4238705719070195</v>
       </c>
     </row>
     <row r="42">
@@ -1111,14 +1111,14 @@
         <v>0.08016032064128256</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5152728709946666</v>
+        <v>0.8650668552214191</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>0.08016032064128256</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6304015247868637</v>
+        <v>-0.4449816186703512</v>
       </c>
     </row>
     <row r="43">
@@ -1127,14 +1127,14 @@
         <v>0.08216432865731463</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4901782737655777</v>
+        <v>0.8459017170854466</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>0.08216432865731463</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6522410526230419</v>
+        <v>-0.4609021214390503</v>
       </c>
     </row>
     <row r="44">
@@ -1143,14 +1143,14 @@
         <v>0.08416833667334668</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4672183059872275</v>
+        <v>0.8275967293200891</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
         <v>0.08416833667334668</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6745690447058645</v>
+        <v>-0.4724832637851514</v>
       </c>
     </row>
     <row r="45">
@@ -1159,14 +1159,14 @@
         <v>0.08617234468937875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4472629247616893</v>
+        <v>0.8099467574446262</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>0.08617234468937875</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6969368556537238</v>
+        <v>-0.4812480478159371</v>
       </c>
     </row>
     <row r="46">
@@ -1175,14 +1175,14 @@
         <v>0.08817635270541081</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4306615387654231</v>
+        <v>0.792684409431055</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>0.08817635270541081</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7191294487185953</v>
+        <v>-0.4890110718450416</v>
       </c>
     </row>
     <row r="47">
@@ -1191,14 +1191,14 @@
         <v>0.09018036072144288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4171300815143215</v>
+        <v>0.7755361457433194</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>0.09018036072144288</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7410052232325692</v>
+        <v>-0.4975051280962413</v>
       </c>
     </row>
     <row r="48">
@@ -1207,14 +1207,14 @@
         <v>0.09218436873747494</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4058963928460843</v>
+        <v>0.7582993210421846</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>0.09218436873747494</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.7623422031775997</v>
+        <v>-0.5080852104175803</v>
       </c>
     </row>
     <row r="49">
@@ -1223,14 +1223,14 @@
         <v>0.09418837675350701</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3960309071988014</v>
+        <v>0.7408964787754013</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>0.09418837675350701</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.7828375481725963</v>
+        <v>-0.52151926376816</v>
       </c>
     </row>
     <row r="50">
@@ -1239,14 +1239,14 @@
         <v>0.09619238476953906</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3867627585989599</v>
+        <v>0.7233638956811612</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>0.09619238476953906</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8022513396882224</v>
+        <v>-0.5378670926342847</v>
       </c>
     </row>
     <row r="51">
@@ -1255,14 +1255,14 @@
         <v>0.09819639278557113</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3776167522342402</v>
+        <v>0.7057744515300598</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>0.09819639278557113</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.8205665586028404</v>
+        <v>-0.5564855942680317</v>
       </c>
     </row>
     <row r="52">
@@ -1271,14 +1271,14 @@
         <v>0.1002004008016032</v>
       </c>
       <c r="C52" t="n">
-        <v>0.368345185521354</v>
+        <v>0.6881450779798952</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>0.1002004008016032</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8380562290966005</v>
+        <v>-0.5762196180685264</v>
       </c>
     </row>
     <row r="53">
@@ -1287,14 +1287,14 @@
         <v>0.1022044088176353</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358764993627172</v>
+        <v>0.6704016973213505</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
         <v>0.1022044088176353</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8552454566615475</v>
+        <v>-0.5957684197292034</v>
       </c>
     </row>
     <row r="54">
@@ -1303,14 +1303,14 @@
         <v>0.1042084168336673</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3486419941466272</v>
+        <v>0.6524475347346751</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>0.1042084168336673</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8727922492607427</v>
+        <v>-0.6141005486609207</v>
       </c>
     </row>
     <row r="55">
@@ -1319,14 +1319,14 @@
         <v>0.1062124248496994</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3376895217227018</v>
+        <v>0.6342913019844458</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
         <v>0.1062124248496994</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8913089075401692</v>
+        <v>-0.6307060935977007</v>
       </c>
     </row>
     <row r="56">
@@ -1335,14 +1335,14 @@
         <v>0.1082164328657315</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3256594240191998</v>
+        <v>0.6161188765308209</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>0.1082164328657315</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9111530212313309</v>
+        <v>-0.645565256256932</v>
       </c>
     </row>
     <row r="57">
@@ -1351,14 +1351,14 @@
         <v>0.1102204408817635</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3124598991863891</v>
+        <v>0.5982030864416801</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>0.1102204408817635</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9322746202967227</v>
+        <v>-0.658931701234476</v>
       </c>
     </row>
     <row r="58">
@@ -1367,14 +1367,14 @@
         <v>0.1122244488977956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2982449772361333</v>
+        <v>0.5806958738081107</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
         <v>0.1122244488977956</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9542281853766551</v>
+        <v>-0.6711390680014696</v>
       </c>
     </row>
     <row r="59">
@@ -1383,14 +1383,14 @@
         <v>0.1142284569138276</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2834386091278567</v>
+        <v>0.5634517473914079</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>0.1142284569138276</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.976382903461894</v>
+        <v>-0.6825556413736305</v>
       </c>
     </row>
     <row r="60">
@@ -1399,14 +1399,14 @@
         <v>0.1162324649298597</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2686701005452402</v>
+        <v>0.5460175603691955</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>0.1162324649298597</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9982255444231275</v>
+        <v>-0.6936202106836673</v>
       </c>
     </row>
     <row r="61">
@@ -1415,14 +1415,14 @@
         <v>0.1182364729458918</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2546136728961844</v>
+        <v>0.5277409283057638</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>0.1182364729458918</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.019561205730312</v>
+        <v>-0.7048248072830412</v>
       </c>
     </row>
     <row r="62">
@@ -1431,14 +1431,14 @@
         <v>0.1202404809619238</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2417746085681135</v>
+        <v>0.5078542081694075</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>0.1202404809619238</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.040483203146991</v>
+        <v>-0.7166045299958543</v>
       </c>
     </row>
     <row r="63">
@@ -1447,14 +1447,14 @@
         <v>0.1222444889779559</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2302714419703716</v>
+        <v>0.4854471238193558</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>0.1222444889779559</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.061161542104415</v>
+        <v>-0.7291888124801122</v>
       </c>
     </row>
     <row r="64">
@@ -1463,14 +1463,14 @@
         <v>0.124248496993988</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2196861799615165</v>
+        <v>0.4594636711735128</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>0.124248496993988</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.081634145552539</v>
+        <v>-0.7425024047812787</v>
       </c>
     </row>
     <row r="65">
@@ -1479,14 +1479,14 @@
         <v>0.12625250501002</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2090826080221527</v>
+        <v>0.4291358272342097</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
         <v>0.12625250501002</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.101753255396237</v>
+        <v>-0.756182658432087</v>
       </c>
     </row>
     <row r="66">
@@ -1495,14 +1495,14 @@
         <v>0.1282565130260521</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1972942355555218</v>
+        <v>0.3950985243900155</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>0.1282565130260521</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.121281623338601</v>
+        <v>-0.7697559448010034</v>
       </c>
     </row>
     <row r="67">
@@ -1511,14 +1511,14 @@
         <v>0.1302605210420842</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1835830490496718</v>
+        <v>0.3606735172000459</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
         <v>0.1302605210420842</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.140012801301331</v>
+        <v>-0.7829414684165079</v>
       </c>
     </row>
     <row r="68">
@@ -1527,14 +1527,14 @@
         <v>0.1322645290581162</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1685593819068674</v>
+        <v>0.3320255920494866</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
         <v>0.1322645290581162</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.157828675617314</v>
+        <v>-0.7959446763343494</v>
       </c>
     </row>
     <row r="69">
@@ -1543,14 +1543,14 @@
         <v>0.1342685370741483</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1548495704807149</v>
+        <v>0.3162283439098504</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>0.1342685370741483</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.174712987765018</v>
+        <v>-0.809543999231039</v>
       </c>
     </row>
     <row r="70">
@@ -1559,14 +1559,14 @@
         <v>0.1362725450901804</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1467231947631437</v>
+        <v>0.3179963492493264</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
         <v>0.1362725450901804</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.190775683812316</v>
+        <v>-0.8248507050900055</v>
       </c>
     </row>
     <row r="71">
@@ -1575,14 +1575,14 @@
         <v>0.1382765531062124</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1483291965430964</v>
+        <v>0.337352214861905</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
         <v>0.1382765531062124</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.20627214452252</v>
+        <v>-0.8428255376005869</v>
       </c>
     </row>
     <row r="72">
@@ -1591,14 +1591,14 @@
         <v>0.1402805611222445</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1613734017712155</v>
+        <v>0.3699439092455672</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>0.1402805611222445</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.221555295606689</v>
+        <v>-0.8638172845944665</v>
       </c>
     </row>
     <row r="73">
@@ -1607,14 +1607,14 @@
         <v>0.1422845691382765</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1839406930939511</v>
+        <v>0.4095395840849725</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
         <v>0.1422845691382765</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.236952289833059</v>
+        <v>-0.8874025905861812</v>
       </c>
     </row>
     <row r="74">
@@ -1623,14 +1623,14 @@
         <v>0.1442885771543086</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2115263904814776</v>
+        <v>0.4507059295383195</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
         <v>0.1442885771543086</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.25264839889289</v>
+        <v>-0.9126064158255043</v>
       </c>
     </row>
     <row r="75">
@@ -1639,14 +1639,14 @@
         <v>0.1462925851703407</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2395068164679795</v>
+        <v>0.4901415427032749</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
         <v>0.1462925851703407</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.268669984924826</v>
+        <v>-0.9383342567217882</v>
       </c>
     </row>
     <row r="76">
@@ -1655,14 +1655,14 @@
         <v>0.1482965931863727</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2651216562706183</v>
+        <v>0.5265589109536513</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>0.1482965931863727</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.284965940164775</v>
+        <v>-0.9637520431475752</v>
       </c>
     </row>
     <row r="77">
@@ -1671,14 +1671,14 @@
         <v>0.1503006012024048</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2877646075742493</v>
+        <v>0.559867424056807</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
         <v>0.1503006012024048</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.301501788667483</v>
+        <v>-0.9884389465750365</v>
       </c>
     </row>
     <row r="78">
@@ -1687,14 +1687,14 @@
         <v>0.1523046092184369</v>
       </c>
       <c r="C78" t="n">
-        <v>0.308031071364722</v>
+        <v>0.5903784176494759</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
         <v>0.1523046092184369</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.318283304246449</v>
+        <v>-1.012291970020305</v>
       </c>
     </row>
     <row r="79">
@@ -1703,14 +1703,14 @@
         <v>0.1543086172344689</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3267379075925194</v>
+        <v>0.6183663200605233</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
         <v>0.1543086172344689</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.335284662697374</v>
+        <v>-1.035297084636508</v>
       </c>
     </row>
     <row r="80">
@@ -1719,14 +1719,14 @@
         <v>0.156312625250501</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3445754574325285</v>
+        <v>0.6440263231446051</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
         <v>0.156312625250501</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.35228818498189</v>
+        <v>-1.057329080279055</v>
       </c>
     </row>
     <row r="81">
@@ -1735,14 +1735,14 @@
         <v>0.1583166332665331</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3621976521994249</v>
+        <v>0.6676651293863778</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
         <v>0.1583166332665331</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.368675658290808</v>
+        <v>-1.078105944203144</v>
       </c>
     </row>
     <row r="82">
@@ -1751,14 +1751,14 @@
         <v>0.1603206412825651</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3803067526920147</v>
+        <v>0.6899028150783264</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
         <v>0.1603206412825651</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.383282238034486</v>
+        <v>-1.097301029796736</v>
       </c>
     </row>
     <row r="83">
@@ -1767,14 +1767,14 @@
         <v>0.1623246492985972</v>
       </c>
       <c r="C83" t="n">
-        <v>0.399565239801029</v>
+        <v>0.7116942703287996</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
         <v>0.1623246492985972</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.39448926787199</v>
+        <v>-1.114713449487442</v>
       </c>
     </row>
     <row r="84">
@@ -1783,14 +1783,14 @@
         <v>0.1643286573146293</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4204433893659797</v>
+        <v>0.734146582287882</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
         <v>0.1643286573146293</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.400659130197998</v>
+        <v>-1.130398433533381</v>
       </c>
     </row>
     <row r="85">
@@ -1799,14 +1799,14 @@
         <v>0.1663326653306613</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4430959020809381</v>
+        <v>0.7582386800560135</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
         <v>0.1663326653306613</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.400769744279818</v>
+        <v>-1.144711462855091</v>
       </c>
     </row>
     <row r="86">
@@ -1815,14 +1815,14 @@
         <v>0.1683366733466934</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4673051197498416</v>
+        <v>0.7846042699277103</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
         <v>0.1683366733466934</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.394878528265206</v>
+        <v>-1.158271368443801</v>
       </c>
     </row>
     <row r="87">
@@ -1831,14 +1831,14 @@
         <v>0.1703406813627254</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4925310832021</v>
+        <v>0.8135054566936654</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
         <v>0.1703406813627254</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.384095103615005</v>
+        <v>-1.171847127559106</v>
       </c>
     </row>
     <row r="88">
@@ -1847,14 +1847,14 @@
         <v>0.1723446893787575</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5180841523492957</v>
+        <v>0.8449904339200935</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
         <v>0.1723446893787575</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.37007992223469</v>
+        <v>-1.186185854787915</v>
       </c>
     </row>
     <row r="89">
@@ -1863,14 +1863,14 @@
         <v>0.1743486973947896</v>
       </c>
       <c r="C89" t="n">
-        <v>0.543350495431746</v>
+        <v>0.8790497752889708</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
         <v>0.1743486973947896</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.354413438397905</v>
+        <v>-1.201835253940637</v>
       </c>
     </row>
     <row r="90">
@@ -1879,14 +1879,14 @@
         <v>0.1763527054108216</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5678320721103778</v>
+        <v>0.9154572445635898</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
         <v>0.1763527054108216</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.338205539629241</v>
+        <v>-1.219030409045154</v>
       </c>
     </row>
     <row r="91">
@@ -1895,14 +1895,14 @@
         <v>0.1783567134268537</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5908181726370622</v>
+        <v>0.9531219283192129</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
         <v>0.1783567134268537</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.32206202407004</v>
+        <v>-1.237680104293532</v>
       </c>
     </row>
     <row r="92">
@@ -1911,14 +1911,14 @@
         <v>0.1803607214428858</v>
       </c>
       <c r="C92" t="n">
-        <v>0.610869988555357</v>
+        <v>0.9892889036584003</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
         <v>0.1803607214428858</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.306261670246801</v>
+        <v>-1.257385880101308</v>
       </c>
     </row>
     <row r="93">
@@ -1927,14 +1927,14 @@
         <v>0.1823647294589178</v>
       </c>
       <c r="C93" t="n">
-        <v>0.625677629468921</v>
+        <v>1.019461910512862</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
         <v>0.1823647294589178</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.290935501768723</v>
+        <v>-1.277382502717013</v>
       </c>
     </row>
     <row r="94">
@@ -1943,14 +1943,14 @@
         <v>0.1843687374749499</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6327436028225177</v>
+        <v>1.038748702848741</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
         <v>0.1843687374749499</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.276145610633558</v>
+        <v>-1.296383906483443</v>
       </c>
     </row>
     <row r="95">
@@ -1959,14 +1959,14 @@
         <v>0.186372745490982</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6306435374026418</v>
+        <v>1.0441758319415</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
         <v>0.186372745490982</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.261883638212559</v>
+        <v>-1.312527778068415</v>
       </c>
     </row>
     <row r="96">
@@ -1975,14 +1975,14 @@
         <v>0.188376753507014</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6199386037845656</v>
+        <v>1.036365028451311</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
         <v>0.188376753507014</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.248052497447028</v>
+        <v>-1.323690666895752</v>
       </c>
     </row>
     <row r="97">
@@ -1991,14 +1991,14 @@
         <v>0.1903807615230461</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6029759805112456</v>
+        <v>1.019210088173365</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
         <v>0.1903807615230461</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.234471173212849</v>
+        <v>-1.328206176970415</v>
       </c>
     </row>
     <row r="98">
@@ -2007,14 +2007,14 @@
         <v>0.1923847695390781</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5827598153202811</v>
+        <v>0.9978067793577479</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
         <v>0.1923847695390781</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.220917936252157</v>
+        <v>-1.325593416008369</v>
       </c>
     </row>
     <row r="99">
@@ -2023,14 +2023,14 @@
         <v>0.1943887775551102</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5618394702730841</v>
+        <v>0.976221499149039</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
         <v>0.1943887775551102</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.207188742166554</v>
+        <v>-1.316770158651247</v>
       </c>
     </row>
     <row r="100">
@@ -2039,14 +2039,14 @@
         <v>0.1963927855711423</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5420641907009478</v>
+        <v>0.9564627566914501</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
         <v>0.1963927855711423</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.193133043759651</v>
+        <v>-1.303595453051986</v>
       </c>
     </row>
     <row r="101">
@@ -2055,14 +2055,14 @@
         <v>0.1983967935871743</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5252517656820517</v>
+        <v>0.9387884484301972</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
         <v>0.1983967935871743</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.17864285012372</v>
+        <v>-1.288104257253978</v>
       </c>
     </row>
     <row r="102">
@@ -2071,14 +2071,14 @@
         <v>0.2004008016032064</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5141391874770533</v>
+        <v>0.9226160122086701</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
         <v>0.2004008016032064</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.163614416295786</v>
+        <v>-1.271925648564889</v>
       </c>
     </row>
     <row r="103">
@@ -2087,14 +2087,14 @@
         <v>0.2024048096192385</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5127258836785018</v>
+        <v>0.9073191048643987</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
         <v>0.2024048096192385</v>
       </c>
       <c r="F103" t="n">
-        <v>-1.147925471512629</v>
+        <v>-1.256072072389568</v>
       </c>
     </row>
     <row r="104">
@@ -2103,14 +2103,14 @@
         <v>0.2044088176352705</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5254739660772584</v>
+        <v>0.8926246680376135</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
         <v>0.2044088176352705</v>
       </c>
       <c r="F104" t="n">
-        <v>-1.131458260438801</v>
+        <v>-1.240971004776247</v>
       </c>
     </row>
     <row r="105">
@@ -2119,14 +2119,14 @@
         <v>0.2064128256513026</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5555707632724307</v>
+        <v>0.8786375615948729</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
         <v>0.2064128256513026</v>
       </c>
       <c r="F105" t="n">
-        <v>-1.114156110419822</v>
+        <v>-1.226574913504851</v>
       </c>
     </row>
     <row r="106">
@@ -2135,14 +2135,14 @@
         <v>0.2084168336673347</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6030868162262879</v>
+        <v>0.8656452219443596</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
         <v>0.2084168336673347</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.09606965903868</v>
+        <v>-1.212516093401506</v>
       </c>
     </row>
     <row r="107">
@@ -2151,14 +2151,14 @@
         <v>0.2104208416833667</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6639169664754578</v>
+        <v>0.8538669534153621</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
         <v>0.2104208416833667</v>
       </c>
       <c r="F107" t="n">
-        <v>-1.077364178871018</v>
+        <v>-1.198312716259873</v>
       </c>
     </row>
     <row r="108">
@@ -2167,14 +2167,14 @@
         <v>0.2124248496993988</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7299876190915768</v>
+        <v>0.8433121781965621</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
         <v>0.2124248496993988</v>
       </c>
       <c r="F108" t="n">
-        <v>-1.058294423026098</v>
+        <v>-1.183567410083709</v>
       </c>
     </row>
     <row r="109">
@@ -2183,14 +2183,14 @@
         <v>0.2144288577154309</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7908294927069196</v>
+        <v>0.8337911858717924</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
         <v>0.2144288577154309</v>
       </c>
       <c r="F109" t="n">
-        <v>-1.039158880815592</v>
+        <v>-1.168056393040167</v>
       </c>
     </row>
     <row r="110">
@@ -2199,14 +2199,14 @@
         <v>0.2164328657314629</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8363628964579768</v>
+        <v>0.8250206794931694</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
         <v>0.2164328657314629</v>
       </c>
       <c r="F110" t="n">
-        <v>-1.020232735469085</v>
+        <v>-1.151684542711001</v>
       </c>
     </row>
     <row r="111">
@@ -2215,14 +2215,14 @@
         <v>0.218436873747495</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8601082744420337</v>
+        <v>0.8167386414830636</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="n">
         <v>0.218436873747495</v>
       </c>
       <c r="F111" t="n">
-        <v>-1.001689575318507</v>
+        <v>-1.134386732723769</v>
       </c>
     </row>
     <row r="112">
@@ -2231,14 +2231,14 @@
         <v>0.220440881763527</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8612482048294228</v>
+        <v>0.8087606452470024</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
         <v>0.220440881763527</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.9835631227175605</v>
+        <v>-1.116068928195999</v>
       </c>
     </row>
     <row r="113">
@@ -2247,14 +2247,14 @@
         <v>0.2224448897795591</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8442182753446354</v>
+        <v>0.8009613559997494</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
         <v>0.2224448897795591</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.9658131123743156</v>
+        <v>-1.096633279945215</v>
       </c>
     </row>
     <row r="114">
@@ -2263,14 +2263,14 @@
         <v>0.2244488977955912</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8161128957084377</v>
+        <v>0.7932115569902886</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
         <v>0.2244488977955912</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.948484441454859</v>
+        <v>-1.076068276538392</v>
       </c>
     </row>
     <row r="115">
@@ -2279,14 +2279,14 @@
         <v>0.2264529058116232</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7836788736877837</v>
+        <v>0.7853222888865129</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="n">
         <v>0.2264529058116232</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.9318412669004205</v>
+        <v>-1.054543254525869</v>
       </c>
     </row>
     <row r="116">
@@ -2295,14 +2295,14 @@
         <v>0.2284569138276553</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7515445495957955</v>
+        <v>0.7770439423566559</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
         <v>0.2284569138276553</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.9163356833959615</v>
+        <v>-1.032435135320895</v>
       </c>
     </row>
     <row r="117">
@@ -2311,14 +2311,14 @@
         <v>0.2304609218436874</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7220154764456543</v>
+        <v>0.7681213162083216</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="n">
         <v>0.2304609218436874</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.9023848088373432</v>
+        <v>-1.010245782372737</v>
       </c>
     </row>
     <row r="118">
@@ -2327,14 +2327,14 @@
         <v>0.2324649298597194</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6957246721222925</v>
+        <v>0.758356417624619</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
         <v>0.2324649298597194</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.8900857195434266</v>
+        <v>-0.9884505069455216</v>
       </c>
     </row>
     <row r="119">
@@ -2343,14 +2343,14 @@
         <v>0.2344689378757515</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6723791611650468</v>
+        <v>0.7476209616063039</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
         <v>0.2344689378757515</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.8790395907651765</v>
+        <v>-0.9673971258239703</v>
       </c>
     </row>
     <row r="120">
@@ -2359,14 +2359,14 @@
         <v>0.2364729458917836</v>
       </c>
       <c r="C120" t="n">
-        <v>0.651312686863646</v>
+        <v>0.7358084278716253</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
         <v>0.2364729458917836</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.8683778027733285</v>
+        <v>-0.9473514669460984</v>
       </c>
     </row>
     <row r="121">
@@ -2375,14 +2375,14 @@
         <v>0.2384769539078156</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6318527692688649</v>
+        <v>0.7227799392948007</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
         <v>0.2384769539078156</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.8569657903704169</v>
+        <v>-0.9286485346208453</v>
       </c>
     </row>
     <row r="122">
@@ -2391,14 +2391,14 @@
         <v>0.2404809619238477</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6135455560730387</v>
+        <v>0.7083650764666214</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
         <v>0.2404809619238477</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.8437020092715808</v>
+        <v>-0.9117825300224185</v>
       </c>
     </row>
     <row r="123">
@@ -2407,14 +2407,14 @@
         <v>0.2424849699398798</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5962022754851815</v>
+        <v>0.6924279058177412</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
         <v>0.2424849699398798</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.8277967146376705</v>
+        <v>-0.8973031775144958</v>
       </c>
     </row>
     <row r="124">
@@ -2423,14 +2423,14 @@
         <v>0.2444889779559118</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5798035676174457</v>
+        <v>0.6749504942041462</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
         <v>0.2444889779559118</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.8089198717375496</v>
+        <v>-0.8855563687555261</v>
       </c>
     </row>
     <row r="125">
@@ -2439,14 +2439,14 @@
         <v>0.2464929859719439</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5643533853127911</v>
+        <v>0.656072701769623</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
         <v>0.2464929859719439</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.7871611446890111</v>
+        <v>-0.8764298132038054</v>
       </c>
     </row>
     <row r="126">
@@ -2455,14 +2455,14 @@
         <v>0.2484969939879759</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5497837607365785</v>
+        <v>0.636062040807895</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
         <v>0.2484969939879759</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.7628586439758945</v>
+        <v>-0.8692366776853375</v>
       </c>
     </row>
     <row r="127">
@@ -2471,14 +2471,14 @@
         <v>0.250501002004008</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5359634719100794</v>
+        <v>0.6152346381976579</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
         <v>0.250501002004008</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.7364201813658194</v>
+        <v>-0.8627706367846388</v>
       </c>
     </row>
     <row r="128">
@@ -2487,14 +2487,14 @@
         <v>0.2525050100200401</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5227667039453954</v>
+        <v>0.5938787103617644</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
         <v>0.2525050100200401</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.7082124581179752</v>
+        <v>-0.8555221786636255</v>
       </c>
     </row>
     <row r="129">
@@ -2503,14 +2503,14 @@
         <v>0.2545090180360721</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5101127344909071</v>
+        <v>0.5722337269844198</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
         <v>0.2545090180360721</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.6784260305817964</v>
+        <v>-0.8460323603988653</v>
       </c>
     </row>
     <row r="130">
@@ -2519,14 +2519,14 @@
         <v>0.2565130260521042</v>
       </c>
       <c r="C130" t="n">
-        <v>0.497913305660343</v>
+        <v>0.550501874680522</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="n">
         <v>0.2565130260521042</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.6468006973489873</v>
+        <v>-0.8332943827121441</v>
       </c>
     </row>
     <row r="131">
@@ -2535,14 +2535,14 @@
         <v>0.2585170340681363</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4859376525280835</v>
+        <v>0.5288301434205024</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="n">
         <v>0.2585170340681363</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.6122936530371533</v>
+        <v>-0.8170209922302104</v>
       </c>
     </row>
     <row r="132">
@@ -2551,14 +2551,14 @@
         <v>0.2605210420841683</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4737200634841533</v>
+        <v>0.5072153555390354</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
         <v>0.2605210420841683</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.5730140157837451</v>
+        <v>-0.7976108057114605</v>
       </c>
     </row>
     <row r="133">
@@ -2567,14 +2567,14 @@
         <v>0.2625250501002004</v>
       </c>
       <c r="C133" t="n">
-        <v>0.460644543910014</v>
+        <v>0.4854188785367006</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
         <v>0.2625250501002004</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.5269407091664853</v>
+        <v>-0.7758149275890944</v>
       </c>
     </row>
     <row r="134">
@@ -2583,14 +2583,14 @@
         <v>0.2645290581162325</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4462067962771054</v>
+        <v>0.463120944938371</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
         <v>0.2645290581162325</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.4736650113306941</v>
+        <v>-0.7523238376864498</v>
       </c>
     </row>
     <row r="135">
@@ -2599,14 +2599,14 @@
         <v>0.2665330661322645</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4302751651275454</v>
+        <v>0.4404456291964566</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="n">
         <v>0.2665330661322645</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.4165218641588698</v>
+        <v>-0.7274607129880384</v>
       </c>
     </row>
     <row r="136">
@@ -2615,14 +2615,14 @@
         <v>0.2685370741482966</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4131427394000515</v>
+        <v>0.4186084008124794</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
         <v>0.2685370741482966</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.3634313090021955</v>
+        <v>-0.7010248828112439</v>
       </c>
     </row>
     <row r="137">
@@ -2631,14 +2631,14 @@
         <v>0.2705410821643287</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3953485632954628</v>
+        <v>0.4000663590367316</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
         <v>0.2705410821643287</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.3248217489824688</v>
+        <v>-0.6722096287003383</v>
       </c>
     </row>
     <row r="138">
@@ -2647,14 +2647,14 @@
         <v>0.2725450901803607</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3774200248024565</v>
+        <v>0.3876874142429674</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
         <v>0.2725450901803607</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.3089663846317041</v>
+        <v>-0.6395764579017877</v>
       </c>
     </row>
     <row r="139">
@@ -2663,14 +2663,14 @@
         <v>0.2745490981963928</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3597240896521814</v>
+        <v>0.3832253381366327</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
         <v>0.2745490981963928</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.3176062424082774</v>
+        <v>-0.6014389620556185</v>
       </c>
     </row>
     <row r="140">
@@ -2679,14 +2679,14 @@
         <v>0.2765531062124248</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3424958571378988</v>
+        <v>0.3861564087031511</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
         <v>0.2765531062124248</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.3450953961217947</v>
+        <v>-0.5570955942144273</v>
       </c>
     </row>
     <row r="141">
@@ -2695,14 +2695,14 @@
         <v>0.2785571142284569</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3259610307276765</v>
+        <v>0.3938200420033095</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
         <v>0.2785571142284569</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.3816126892973193</v>
+        <v>-0.5087003996227784</v>
       </c>
     </row>
     <row r="142">
@@ -2711,14 +2711,14 @@
         <v>0.280561122244489</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3103917201464058</v>
+        <v>0.4027697103289422</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
         <v>0.280561122244489</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.417845129951362</v>
+        <v>-0.4623842107257868</v>
       </c>
     </row>
     <row r="143">
@@ -2727,14 +2727,14 @@
         <v>0.282565130260521</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2959965550188378</v>
+        <v>0.4103140433348233</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
         <v>0.282565130260521</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.4480252115860814</v>
+        <v>-0.4268845705277944</v>
       </c>
     </row>
     <row r="144">
@@ -2743,14 +2743,14 @@
         <v>0.2845691382765531</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2827086197249662</v>
+        <v>0.4152867553676605</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
         <v>0.2845691382765531</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.4702667817217132</v>
+        <v>-0.4095952103855974</v>
       </c>
     </row>
     <row r="145">
@@ -2759,14 +2759,14 @@
         <v>0.2865731462925851</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2700591181572362</v>
+        <v>0.4178776325092689</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
         <v>0.2865731462925851</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.4852590506732471</v>
+        <v>-0.4125194486569317</v>
       </c>
     </row>
     <row r="146">
@@ -2775,14 +2775,14 @@
         <v>0.2885771543086172</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2572600321304607</v>
+        <v>0.4189982576640071</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
         <v>0.2885771543086172</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.4948333184017538</v>
+        <v>-0.4312697848644556</v>
       </c>
     </row>
     <row r="147">
@@ -2791,14 +2791,14 @@
         <v>0.2905811623246493</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2434598982746252</v>
+        <v>0.4196902863762115</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
         <v>0.2905811623246493</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.5011248385937183</v>
+        <v>-0.4578329040275254</v>
       </c>
     </row>
     <row r="148">
@@ -2807,14 +2807,14 @@
         <v>0.2925851703406813</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2280212302588557</v>
+        <v>0.4207772682638767</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
         <v>0.2925851703406813</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.5062361490807192</v>
+        <v>-0.4847403689362422</v>
       </c>
     </row>
     <row r="149">
@@ -2823,14 +2823,14 @@
         <v>0.2945891783567134</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2107010860736013</v>
+        <v>0.4227312415824495</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="n">
         <v>0.2945891783567134</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.5120406384482123</v>
+        <v>-0.5076882397785625</v>
       </c>
     </row>
     <row r="150">
@@ -2839,14 +2839,14 @@
         <v>0.2965931863727455</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1916974716084828</v>
+        <v>0.425680853726336</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
         <v>0.2965931863727455</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.5199477564214479</v>
+        <v>-0.5256089762124674</v>
       </c>
     </row>
     <row r="151">
@@ -2855,14 +2855,14 @@
         <v>0.2985971943887775</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1715506386752576</v>
+        <v>0.4295179272388824</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
         <v>0.2985971943887775</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.5306630274848309</v>
+        <v>-0.5392619699918701</v>
       </c>
     </row>
     <row r="152">
@@ -2871,14 +2871,14 @@
         <v>0.3006012024048096</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1509263519046516</v>
+        <v>0.4340261162851688</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
         <v>0.3006012024048096</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.5440919752859624</v>
+        <v>-0.5498403111149293</v>
       </c>
     </row>
     <row r="153">
@@ -2887,14 +2887,14 @@
         <v>0.3026052104208417</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1303670490792812</v>
+        <v>0.4389731419713524</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
         <v>0.3026052104208417</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.5595016531093085</v>
+        <v>-0.5582999003795203</v>
       </c>
     </row>
     <row r="154">
@@ -2903,14 +2903,14 @@
         <v>0.3046092184368737</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1101329530845459</v>
+        <v>0.4441447571138499</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
         <v>0.3046092184368737</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.5758583365541352</v>
+        <v>-0.5652967235399777</v>
       </c>
     </row>
     <row r="155">
@@ -2919,14 +2919,14 @@
         <v>0.3066132264529058</v>
       </c>
       <c r="C155" t="n">
-        <v>0.09021097160931148</v>
+        <v>0.4493433878774127</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
         <v>0.3066132264529058</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.5921853697786524</v>
+        <v>-0.5713282230912698</v>
       </c>
     </row>
     <row r="156">
@@ -2935,14 +2935,14 @@
         <v>0.3086172344689379</v>
       </c>
       <c r="C156" t="n">
-        <v>0.07045418969600173</v>
+        <v>0.4543922696919338</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="n">
         <v>0.3086172344689379</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.6077977743615073</v>
+        <v>-0.576837093587508</v>
       </c>
     </row>
     <row r="157">
@@ -2951,14 +2951,14 @@
         <v>0.3106212424849699</v>
       </c>
       <c r="C157" t="n">
-        <v>0.05073533854016719</v>
+        <v>0.4591605385213829</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="n">
         <v>0.3106212424849699</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.6223521108964631</v>
+        <v>-0.5822021134929442</v>
       </c>
     </row>
     <row r="158">
@@ -2967,14 +2967,14 @@
         <v>0.312625250501002</v>
       </c>
       <c r="C158" t="n">
-        <v>0.03099407653923616</v>
+        <v>0.4636007525479447</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="n">
         <v>0.312625250501002</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.6357393376608498</v>
+        <v>-0.5876792776480191</v>
       </c>
     </row>
     <row r="159">
@@ -2983,14 +2983,14 @@
         <v>0.314629258517034</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01117374722005045</v>
+        <v>0.4677813083261847</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="n">
         <v>0.314629258517034</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.647917920183479</v>
+        <v>-0.5933941068138524</v>
       </c>
     </row>
     <row r="160">
@@ -2999,14 +2999,14 @@
         <v>0.3166332665330661</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.008852687715982003</v>
+        <v>0.4718997968029727</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="n">
         <v>0.3166332665330661</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.6587974139801851</v>
+        <v>-0.5993769389765589</v>
       </c>
     </row>
     <row r="161">
@@ -3015,14 +3015,14 @@
         <v>0.3186372745490982</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.0292640494102135</v>
+        <v>0.4762627614918999</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
         <v>0.3186372745490982</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.668231782879569</v>
+        <v>-0.6056217917208185</v>
       </c>
     </row>
     <row r="162">
@@ -3031,14 +3031,14 @@
         <v>0.3206412825651302</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.05016978892061781</v>
+        <v>0.4812179002862181</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="n">
         <v>0.3206412825651302</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.6760962533710644</v>
+        <v>-0.6121314157798944</v>
       </c>
     </row>
     <row r="163">
@@ -3047,14 +3047,14 @@
         <v>0.3226452905811623</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.07147999052746307</v>
+        <v>0.4870420867005745</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
         <v>0.3226452905811623</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.6823662483440269</v>
+        <v>-0.6189277710422845</v>
       </c>
     </row>
     <row r="164">
@@ -3063,14 +3063,14 @@
         <v>0.3246492985971944</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.09286565511814751</v>
+        <v>0.493822782273621</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
         <v>0.3246492985971944</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.6871342303984752</v>
+        <v>-0.6260279241138387</v>
       </c>
     </row>
     <row r="165">
@@ -3079,14 +3079,14 @@
         <v>0.3266533066132264</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.1138460776563975</v>
+        <v>0.5013998524022392</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
         <v>0.3266533066132264</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.6905636414905225</v>
+        <v>-0.6334114215538272</v>
       </c>
     </row>
     <row r="166">
@@ -3095,14 +3095,14 @@
         <v>0.3286573146292585</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1339648991510623</v>
+        <v>0.5094241488864294</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
         <v>0.3286573146292585</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.692826977856369</v>
+        <v>-0.6410190501949117</v>
       </c>
     </row>
     <row r="167">
@@ -3111,14 +3111,14 @@
         <v>0.3306613226452906</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1529694901122892</v>
+        <v>0.5175162578281555</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
         <v>0.3306613226452906</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.6940739220596946</v>
+        <v>-0.6487884902093957</v>
       </c>
     </row>
     <row r="168">
@@ -3127,14 +3127,14 @@
         <v>0.3326653306613226</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1708977395047</v>
+        <v>0.525436596531184</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="n">
         <v>0.3326653306613226</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.6944388173036414</v>
+        <v>-0.6566867867980486</v>
       </c>
     </row>
     <row r="169">
@@ -3143,14 +3143,14 @@
         <v>0.3346693386773547</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1880210385028091</v>
+        <v>0.5331723508316244</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
         <v>0.3346693386773547</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.6940638866780537</v>
+        <v>-0.6646907214109552</v>
       </c>
     </row>
     <row r="170">
@@ -3159,14 +3159,14 @@
         <v>0.3366733466933867</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.2046769511562802</v>
+        <v>0.5409112031852676</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
         <v>0.3366733466933867</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.6931107585357026</v>
+        <v>-0.6727221535603155</v>
       </c>
     </row>
     <row r="171">
@@ -3175,14 +3175,14 @@
         <v>0.3386773547094188</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.2210863695177516</v>
+        <v>0.54899364881719</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
         <v>0.3386773547094188</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.6917526351767102</v>
+        <v>-0.6806119934637314</v>
       </c>
     </row>
     <row r="172">
@@ -3191,14 +3191,14 @@
         <v>0.3406813627254509</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.2372269051828161</v>
+        <v>0.5579180299409672</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
         <v>0.3406813627254509</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.690159812561595</v>
+        <v>-0.6881510208172703</v>
       </c>
     </row>
     <row r="173">
@@ -3207,14 +3207,14 @@
         <v>0.3426853707414829</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.252803554389466</v>
+        <v>0.5683785435259983</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="n">
         <v>0.3426853707414829</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.6884958608938809</v>
+        <v>-0.6951905675444139</v>
       </c>
     </row>
     <row r="174">
@@ -3223,14 +3223,14 @@
         <v>0.344689378757515</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.2673349090581914</v>
+        <v>0.5811752537431698</v>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="n">
         <v>0.344689378757515</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.6869361355305088</v>
+        <v>-0.701691473961997</v>
       </c>
     </row>
     <row r="175">
@@ -3239,14 +3239,14 @@
         <v>0.3466933867735471</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.280339194096679</v>
+        <v>0.59676195305184</v>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="n">
         <v>0.3466933867735471</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.6857120159862053</v>
+        <v>-0.7076662001458787</v>
       </c>
     </row>
     <row r="176">
@@ -3255,14 +3255,14 @@
         <v>0.3486973947895791</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.291536339530342</v>
+        <v>0.6144071386504424</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="n">
         <v>0.3486973947895791</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.6851644817378235</v>
+        <v>-0.7130782469782816</v>
       </c>
     </row>
     <row r="177">
@@ -3271,14 +3271,14 @@
         <v>0.3507014028056112</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.3009467173914925</v>
+        <v>0.6314235918913271</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
         <v>0.3507014028056112</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.6857587737762427</v>
+        <v>-0.7178101471641379</v>
       </c>
     </row>
     <row r="178">
@@ -3287,14 +3287,14 @@
         <v>0.3527054108216433</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.3088303069558285</v>
+        <v>0.643314331694345</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
         <v>0.3527054108216433</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.6880063182762188</v>
+        <v>-0.7217390115518664</v>
       </c>
     </row>
     <row r="179">
@@ -3303,14 +3303,14 @@
         <v>0.3547094188376753</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.3155242278447767</v>
+        <v>0.6453611854453069</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
         <v>0.3547094188376753</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.692287255484092</v>
+        <v>-0.7248446949725791</v>
       </c>
     </row>
     <row r="180">
@@ -3319,14 +3319,14 @@
         <v>0.3567134268537074</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.3213100240894212</v>
+        <v>0.6350130425733334</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>0.3567134268537074</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.6986601991157951</v>
+        <v>-0.7272512986833337</v>
       </c>
     </row>
     <row r="181">
@@ -3335,14 +3335,14 @@
         <v>0.3587174348697394</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.3264056134921371</v>
+        <v>0.6134015320487991</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
         <v>0.3587174348697394</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.7067955095462919</v>
+        <v>-0.7291719306246125</v>
       </c>
     </row>
     <row r="182">
@@ -3351,14 +3351,14 @@
         <v>0.3607214428857715</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.3310552284154979</v>
+        <v>0.5847126896630774</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
         <v>0.3607214428857715</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.7160984786107929</v>
+        <v>-0.7308144785372174</v>
       </c>
     </row>
     <row r="183">
@@ -3367,14 +3367,14 @@
         <v>0.3627254509018036</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.3356054590627607</v>
+        <v>0.55384163827033</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="n">
         <v>0.3627254509018036</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.7259497496308657</v>
+        <v>-0.7323221061127729</v>
       </c>
     </row>
     <row r="184">
@@ -3383,14 +3383,14 @@
         <v>0.3647294589178356</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.3404680516664439</v>
+        <v>0.5240896193785931</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
         <v>0.3647294589178356</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.7359128113963975</v>
+        <v>-0.7337728106661818</v>
       </c>
     </row>
     <row r="185">
@@ -3399,14 +3399,14 @@
         <v>0.3667334669338677</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.3459859526484803</v>
+        <v>0.496346036302406</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
         <v>0.3667334669338677</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.7458137824110236</v>
+        <v>-0.7352060038373143</v>
       </c>
     </row>
     <row r="186">
@@ -3415,14 +3415,14 @@
         <v>0.3687374749498998</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.352317190990347</v>
+        <v>0.4697963280719247</v>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
         <v>0.3687374749498998</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.7557089785579412</v>
+        <v>-0.7366257457129992</v>
       </c>
     </row>
     <row r="187">
@@ -3431,14 +3431,14 @@
         <v>0.3707414829659318</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.3594396864826738</v>
+        <v>0.4431900074431049</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
         <v>0.3707414829659318</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.7658266827711493</v>
+        <v>-0.7379677511335296</v>
       </c>
     </row>
     <row r="188">
@@ -3447,14 +3447,14 @@
         <v>0.3727454909819639</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.3672627616278075</v>
+        <v>0.4157313509318324</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
         <v>0.3727454909819639</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.7765367607572059</v>
+        <v>-0.7390674722613335</v>
       </c>
     </row>
     <row r="189">
@@ -3463,14 +3463,14 @@
         <v>0.374749498997996</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.3757326713325442</v>
+        <v>0.3872739430026567</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
         <v>0.374749498997996</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.7883408079185262</v>
+        <v>-0.7396826482511853</v>
       </c>
     </row>
     <row r="190">
@@ -3479,14 +3479,14 @@
         <v>0.376753507014028</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.3848326077800132</v>
+        <v>0.3580453413491123</v>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
         <v>0.376753507014028</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.8018325818666294</v>
+        <v>-0.7395887702507994</v>
       </c>
     </row>
     <row r="191">
@@ -3495,14 +3495,14 @@
         <v>0.3787575150300601</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.3944892320481515</v>
+        <v>0.3283131229911165</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
         <v>0.3787575150300601</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.8175292550582178</v>
+        <v>-0.738697643534804</v>
       </c>
     </row>
     <row r="192">
@@ -3511,14 +3511,14 @@
         <v>0.3807615230460922</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.4044857777149499</v>
+        <v>0.2982500332875678</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>0.3807615230460922</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.8354919489742418</v>
+        <v>-0.7371151180081242</v>
       </c>
     </row>
     <row r="193">
@@ -3527,14 +3527,14 @@
         <v>0.3827655310621242</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.4144775008791807</v>
+        <v>0.2680165118891514</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
         <v>0.3827655310621242</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.8548197586325141</v>
+        <v>-0.7350933865373688</v>
       </c>
     </row>
     <row r="194">
@@ -3543,14 +3543,14 @@
         <v>0.3847695390781563</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.4241133371537553</v>
+        <v>0.2378842624599206</v>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>0.3847695390781563</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.8733784633240903</v>
+        <v>-0.7329158231074133</v>
       </c>
     </row>
     <row r="195">
@@ -3559,14 +3559,14 @@
         <v>0.3867735470941883</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.4331819668919588</v>
+        <v>0.2082464665785572</v>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
         <v>0.3867735470941883</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.8882116114973764</v>
+        <v>-0.7307962282673413</v>
       </c>
     </row>
     <row r="196">
@@ -3575,14 +3575,14 @@
         <v>0.3887775551102204</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.4416861945907392</v>
+        <v>0.1795158212376666</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
         <v>0.3887775551102204</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.8966728233196701</v>
+        <v>-0.7288459677024481</v>
       </c>
     </row>
     <row r="197">
@@ -3591,14 +3591,14 @@
         <v>0.3907815631262525</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.4498170427893308</v>
+        <v>0.1519868329483876</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
         <v>0.3907815631262525</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.8976524093861531</v>
+        <v>-0.7270962501086344</v>
       </c>
     </row>
     <row r="198">
@@ -3607,14 +3607,14 @@
         <v>0.3927855711422845</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.4578646785579069</v>
+        <v>0.1257460722503605</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
         <v>0.3927855711422845</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.8920303296791927</v>
+        <v>-0.7255311012560853</v>
       </c>
     </row>
     <row r="199">
@@ -3623,14 +3623,14 @@
         <v>0.3947895791583166</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.4661183485886373</v>
+        <v>0.1006685149495936</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="n">
         <v>0.3947895791583166</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.882045299752044</v>
+        <v>-0.7241043645357745</v>
       </c>
     </row>
     <row r="200">
@@ -3639,14 +3639,14 @@
         <v>0.3967935871743486</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.4747692186278681</v>
+        <v>0.07650389648701643</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
         <v>0.3967935871743486</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.8701109761677469</v>
+        <v>-0.7227475359686248</v>
       </c>
     </row>
     <row r="201">
@@ -3655,14 +3655,14 @@
         <v>0.3987975951903807</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.4838190587659087</v>
+        <v>0.05300674608222054</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
         <v>0.3987975951903807</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.8579126323478345</v>
+        <v>-0.7213851479031562</v>
       </c>
     </row>
     <row r="202">
@@ -3671,14 +3671,14 @@
         <v>0.4008016032064128</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.4930170990926783</v>
+        <v>0.03003280686931592</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
         <v>0.4008016032064128</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.8461990417836389</v>
+        <v>-0.7199600376578186</v>
       </c>
     </row>
     <row r="203">
@@ -3687,14 +3687,14 @@
         <v>0.4028056112224448</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.5018728285599557</v>
+        <v>0.007550517260544976</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
         <v>0.4028056112224448</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.8350928134554283</v>
+        <v>-0.718453349565746</v>
       </c>
     </row>
     <row r="204">
@@ -3703,14 +3703,14 @@
         <v>0.4048096192384769</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.5097524140682974</v>
+        <v>-0.01440388323238909</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
         <v>0.4048096192384769</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.824498190173617</v>
+        <v>-0.716886151158118</v>
       </c>
     </row>
     <row r="205">
@@ -3719,14 +3719,14 @@
         <v>0.406813627254509</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.5160138053955121</v>
+        <v>-0.03577248328810716</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
         <v>0.406813627254509</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.8143303109429741</v>
+        <v>-0.7153049765667994</v>
       </c>
     </row>
     <row r="206">
@@ -3735,14 +3735,14 @@
         <v>0.408817635270541</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.5201241415361124</v>
+        <v>-0.05650687993093984</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
         <v>0.408817635270541</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.8045421543170974</v>
+        <v>-0.7137700887050766</v>
       </c>
     </row>
     <row r="207">
@@ -3751,14 +3751,14 @@
         <v>0.4108216432865731</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.5217481022636871</v>
+        <v>-0.07659366235080968</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
         <v>0.4108216432865731</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.7950690277142567</v>
+        <v>-0.7123625354036152</v>
       </c>
     </row>
     <row r="208">
@@ -3767,14 +3767,14 @@
         <v>0.4128256513026052</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.5208325483606776</v>
+        <v>-0.09606545496453338</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="n">
         <v>0.4128256513026052</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.7858023281638764</v>
+        <v>-0.7112158024913753</v>
       </c>
     </row>
     <row r="209">
@@ -3783,14 +3783,14 @@
         <v>0.4148296593186372</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.5176770645426954</v>
+        <v>-0.1149674475851699</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
         <v>0.4148296593186372</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.7766341354465549</v>
+        <v>-0.7105549476447662</v>
       </c>
     </row>
     <row r="210">
@@ -3799,14 +3799,14 @@
         <v>0.4168336673346693</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.5129202627998023</v>
+        <v>-0.1332851692669366</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="n">
         <v>0.4168336673346693</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.767529472510494</v>
+        <v>-0.7107192513358098</v>
       </c>
     </row>
     <row r="211">
@@ -3815,14 +3815,14 @@
         <v>0.4188376753507014</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.5073870680506785</v>
+        <v>-0.1508776126589291</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
         <v>0.4188376753507014</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.7585504859878074</v>
+        <v>-0.7121434002178245</v>
       </c>
     </row>
     <row r="212">
@@ -3831,14 +3831,14 @@
         <v>0.4208416833667334</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.5018515835799904</v>
+        <v>-0.167462366912762</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
         <v>0.4208416833667334</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.7498073508952517</v>
+        <v>-0.7152848449505239</v>
       </c>
     </row>
     <row r="213">
@@ -3847,14 +3847,14 @@
         <v>0.4228456913827655</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.4968560215495696</v>
+        <v>-0.1826711696721397</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="n">
         <v>0.4228456913827655</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.7413729184334678</v>
+        <v>-0.7205035929918113</v>
       </c>
     </row>
     <row r="214">
@@ -3863,14 +3863,14 @@
         <v>0.4248496993987976</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.4926807240304748</v>
+        <v>-0.196155314145798</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="n">
         <v>0.4248496993987976</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.7332371782951409</v>
+        <v>-0.7279219084643547</v>
       </c>
     </row>
     <row r="215">
@@ -3879,14 +3879,14 @@
         <v>0.4268537074148296</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.4894382744122342</v>
+        <v>-0.2076993125693341</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
         <v>0.4268537074148296</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.7253441640595744</v>
+        <v>-0.7373214332514608</v>
       </c>
     </row>
     <row r="216">
@@ -3895,14 +3895,14 @@
         <v>0.4288577154308617</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.487189686390508</v>
+        <v>-0.2172931266130733</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="n">
         <v>0.4288577154308617</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.717688860543739</v>
+        <v>-0.7481475994467567</v>
       </c>
     </row>
     <row r="217">
@@ -3911,14 +3911,14 @@
         <v>0.4308617234468938</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.4860162336851206</v>
+        <v>-0.2251404947856238</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="n">
         <v>0.4308617234468938</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.7103997837536414</v>
+        <v>-0.7596582216391397</v>
       </c>
     </row>
     <row r="218">
@@ -3927,14 +3927,14 @@
         <v>0.4328657314629258</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.4860390870191796</v>
+        <v>-0.2316045486449573</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="n">
         <v>0.4328657314629258</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.7037428778683674</v>
+        <v>-0.7711631623949148</v>
       </c>
     </row>
     <row r="219">
@@ -3943,14 +3943,14 @@
         <v>0.4348697394789579</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.487433248399463</v>
+        <v>-0.2371130697812245</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="n">
         <v>0.4348697394789579</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.6980358561174858</v>
+        <v>-0.7822333284556149</v>
       </c>
     </row>
     <row r="220">
@@ -3959,14 +3959,14 @@
         <v>0.4368737474949899</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.4904581020432797</v>
+        <v>-0.2420443165848485</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="n">
         <v>0.4368737474949899</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.6935109324450001</v>
+        <v>-0.7927703693024868</v>
       </c>
     </row>
     <row r="221">
@@ -3975,14 +3975,14 @@
         <v>0.438877755511022</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.4954684033107415</v>
+        <v>-0.2466186442890141</v>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="n">
         <v>0.438877755511022</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.6901832850291542</v>
+        <v>-0.802921649137494</v>
       </c>
     </row>
     <row r="222">
@@ -3991,14 +3991,14 @@
         <v>0.440881763527054</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.5028148936190275</v>
+        <v>-0.250823493087908</v>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="n">
         <v>0.440881763527054</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.6877705096620326</v>
+        <v>-0.8129099165240643</v>
       </c>
     </row>
     <row r="223">
@@ -4007,14 +4007,14 @@
         <v>0.4428857715430861</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.5125315222361702</v>
+        <v>-0.2544083649469467</v>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="n">
         <v>0.4428857715430861</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.6856924735070513</v>
+        <v>-0.8228746575450862</v>
       </c>
     </row>
     <row r="224">
@@ -4023,14 +4023,14 @@
         <v>0.4448897795591182</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.5238459964235416</v>
+        <v>-0.25697274195832</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="n">
         <v>0.4448897795591182</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.6831641760374345</v>
+        <v>-0.8327971826288247</v>
       </c>
     </row>
     <row r="225">
@@ -4039,14 +4039,14 @@
         <v>0.4468937875751502</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.53482208723637</v>
+        <v>-0.2581351425863347</v>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
         <v>0.4468937875751502</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.6793672770255919</v>
+        <v>-0.8425313760423011</v>
       </c>
     </row>
     <row r="226">
@@ -4055,14 +4055,14 @@
         <v>0.4488977955911823</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.5426001230585844</v>
+        <v>-0.2577133773653861</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="n">
         <v>0.4488977955911823</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.673644688873255</v>
+        <v>-0.8519099637530494</v>
       </c>
     </row>
     <row r="227">
@@ -4071,14 +4071,14 @@
         <v>0.4509018036072144</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.5444290407839173</v>
+        <v>-0.2558195545002977</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="n">
         <v>0.4509018036072144</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.6656471125676263</v>
+        <v>-0.8608607911490458</v>
       </c>
     </row>
     <row r="228">
@@ -4087,14 +4087,14 @@
         <v>0.4529058116232464</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.5390178912222299</v>
+        <v>-0.252817129094741</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
         <v>0.4529058116232464</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.6553819787025055</v>
+        <v>-0.8694741334889154</v>
       </c>
     </row>
     <row r="229">
@@ -4103,14 +4103,14 @@
         <v>0.4549098196392785</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.5272656721796702</v>
+        <v>-0.2491793717664512</v>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="n">
         <v>0.4549098196392785</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.6431662370215026</v>
+        <v>-0.8779914893284031</v>
       </c>
     </row>
     <row r="230">
@@ -4119,14 +4119,14 @@
         <v>0.4569138276553106</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.5117764078863933</v>
+        <v>-0.2453445735701152</v>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
         <v>0.4569138276553106</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.6295147529467079</v>
+        <v>-0.8867443407340247</v>
       </c>
     </row>
     <row r="231">
@@ -4135,14 +4135,14 @@
         <v>0.4589178356713426</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.4955209376003501</v>
+        <v>-0.241635416291923</v>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="n">
         <v>0.4589178356713426</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.6150088679228074</v>
+        <v>-0.8960914085655998</v>
       </c>
     </row>
     <row r="232">
@@ -4151,14 +4151,14 @@
         <v>0.4609218436873747</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.4806221020205134</v>
+        <v>-0.2382443368650105</v>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
         <v>0.4609218436873747</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.6001742329949293</v>
+        <v>-0.9063737745991176</v>
       </c>
     </row>
     <row r="233">
@@ -4167,14 +4167,14 @@
         <v>0.4629258517034068</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.4679448196464394</v>
+        <v>-0.2352494766254704</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="n">
         <v>0.4629258517034068</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.5853790384448477</v>
+        <v>-0.917867541107322</v>
       </c>
     </row>
     <row r="234">
@@ -4183,14 +4183,14 @@
         <v>0.4649298597194388</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.4574199751160103</v>
+        <v>-0.232632848686874</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="n">
         <v>0.4649298597194388</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.5707532347526686</v>
+        <v>-0.9306157542444917</v>
       </c>
     </row>
     <row r="235">
@@ -4199,14 +4199,14 @@
         <v>0.4669338677354709</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.4485987395202706</v>
+        <v>-0.2302944502137604</v>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="n">
         <v>0.4669338677354709</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.5561537285958058</v>
+        <v>-0.9440461621922444</v>
       </c>
     </row>
     <row r="236">
@@ -4215,14 +4215,14 @@
         <v>0.468937875751503</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.4410447776073794</v>
+        <v>-0.2280637455383101</v>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
         <v>0.468937875751503</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.5412243586638167</v>
+        <v>-0.9565067109443306</v>
       </c>
     </row>
     <row r="237">
@@ -4231,14 +4231,14 @@
         <v>0.470941883767535</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.4344761492666311</v>
+        <v>-0.225713505598514</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="n">
         <v>0.470941883767535</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.5255701885773506</v>
+        <v>-0.9651776698948589</v>
       </c>
     </row>
     <row r="238">
@@ -4247,14 +4247,14 @@
         <v>0.4729458917835671</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.4287418562954357</v>
+        <v>-0.2229713051680994</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
         <v>0.4729458917835671</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.5089828713265137</v>
+        <v>-0.9668199529554482</v>
       </c>
     </row>
     <row r="239">
@@ -4263,14 +4263,14 @@
         <v>0.4749498997995992</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.4237363827013368</v>
+        <v>-0.2195384097538926</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
         <v>0.4749498997995992</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.4915753139970929</v>
+        <v>-0.9592384325567409</v>
       </c>
     </row>
     <row r="240">
@@ -4279,14 +4279,14 @@
         <v>0.4769539078156312</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.4193157177947358</v>
+        <v>-0.215141678615953</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="n">
         <v>0.4769539078156312</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.4737271400010593</v>
+        <v>-0.9425660525698119</v>
       </c>
     </row>
     <row r="241">
@@ -4295,14 +4295,14 @@
         <v>0.4789579158316633</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.4152642062986365</v>
+        <v>-0.2096601906990559</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
         <v>0.4789579158316633</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.455878547709675</v>
+        <v>-0.9193823069457582</v>
       </c>
     </row>
     <row r="242">
@@ -4311,14 +4311,14 @@
         <v>0.4809619238476954</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.4113259557198796</v>
+        <v>-0.2033653714645156</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
         <v>0.4809619238476954</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.4383258178678926</v>
+        <v>-0.8935262032606823</v>
       </c>
     </row>
     <row r="243">
@@ -4327,14 +4327,14 @@
         <v>0.4829659318637274</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.4072659920951588</v>
+        <v>-0.1972377878394772</v>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="n">
         <v>0.4829659318637274</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.4211461547224278</v>
+        <v>-0.8684571002505744</v>
       </c>
     </row>
     <row r="244">
@@ -4343,14 +4343,14 @@
         <v>0.4849699398797595</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.4029204675254729</v>
+        <v>-0.1931723090408056</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
         <v>0.4849699398797595</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.4042598729056363</v>
+        <v>-0.8461936515831014</v>
       </c>
     </row>
     <row r="245">
@@ -4359,14 +4359,14 @@
         <v>0.4869739478957916</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.3982054784350857</v>
+        <v>-0.1937645020017888</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
         <v>0.4869739478957916</v>
       </c>
       <c r="F245" t="n">
-        <v>-0.3875302665754203</v>
+        <v>-0.8272142624909149</v>
       </c>
     </row>
     <row r="246">
@@ -4375,14 +4375,14 @@
         <v>0.4889779559118236</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.3930979388978236</v>
+        <v>-0.2015127100094236</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="n">
         <v>0.4889779559118236</v>
       </c>
       <c r="F246" t="n">
-        <v>-0.3708104494185458</v>
+        <v>-0.8110015261365968</v>
       </c>
     </row>
     <row r="247">
@@ -4391,14 +4391,14 @@
         <v>0.4909819639278556</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.3876169973304325</v>
+        <v>-0.217711936245446</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="n">
         <v>0.4909819639278556</v>
       </c>
       <c r="F247" t="n">
-        <v>-0.3539314269670704</v>
+        <v>-0.7967016829802305</v>
       </c>
     </row>
     <row r="248">
@@ -4407,14 +4407,14 @@
         <v>0.4929859719438877</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.3818174354093486</v>
+        <v>-0.2417259854267035</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
         <v>0.4929859719438877</v>
       </c>
       <c r="F248" t="n">
-        <v>-0.336686125728337</v>
+        <v>-0.7835606779514342</v>
       </c>
     </row>
     <row r="249">
@@ -4423,14 +4423,14 @@
         <v>0.4949899799599198</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.3757739752522193</v>
+        <v>-0.2712000280227011</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
         <v>0.4949899799599198</v>
       </c>
       <c r="F249" t="n">
-        <v>-0.3188495593545246</v>
+        <v>-0.7710630700163829</v>
       </c>
     </row>
     <row r="250">
@@ -4439,14 +4439,14 @@
         <v>0.4969939879759518</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.3695348970514919</v>
+        <v>-0.303100507606923</v>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="n">
         <v>0.4969939879759518</v>
       </c>
       <c r="F250" t="n">
-        <v>-0.3002198770851683</v>
+        <v>-0.7588748475492051</v>
       </c>
     </row>
     <row r="251">
@@ -4455,14 +4455,14 @@
         <v>0.4989979959919839</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.3630644134356839</v>
+        <v>-0.334861789377255</v>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
         <v>0.4989979959919839</v>
       </c>
       <c r="F251" t="n">
-        <v>-0.2806393032320513</v>
+        <v>-0.7467346362692882</v>
       </c>
     </row>
     <row r="252">
@@ -4471,14 +4471,14 @@
         <v>0.501002004008016</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.3561885135709676</v>
+        <v>-0.3649605965165519</v>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
         <v>0.501002004008016</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.2599759769387219</v>
+        <v>-0.7344069101143363</v>
       </c>
     </row>
     <row r="253">
@@ -4487,14 +4487,14 @@
         <v>0.503006012024048</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.3485625875398867</v>
+        <v>-0.3928025202752957</v>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
         <v>0.503006012024048</v>
       </c>
       <c r="F253" t="n">
-        <v>-0.2381047879689062</v>
+        <v>-0.7217204189400434</v>
       </c>
     </row>
     <row r="254">
@@ -4503,14 +4503,14 @@
         <v>0.5050100200400801</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.339684957243284</v>
+        <v>-0.4182838493517967</v>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="n">
         <v>0.5050100200400801</v>
       </c>
       <c r="F254" t="n">
-        <v>-0.2149401360398512</v>
+        <v>-0.7086208355210168</v>
       </c>
     </row>
     <row r="255">
@@ -4519,14 +4519,14 @@
         <v>0.5070140280561122</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.3290028884181249</v>
+        <v>-0.4414220767799323</v>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="n">
         <v>0.5070140280561122</v>
       </c>
       <c r="F255" t="n">
-        <v>-0.1905362411834553</v>
+        <v>-0.6951781669794804</v>
       </c>
     </row>
     <row r="256">
@@ -4535,14 +4535,14 @@
         <v>0.5090180360721442</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.3162164051819998</v>
+        <v>-0.4621980771662549</v>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="n">
         <v>0.5090180360721442</v>
       </c>
       <c r="F256" t="n">
-        <v>-0.1651566293983877</v>
+        <v>-0.6815385013152625</v>
       </c>
     </row>
     <row r="257">
@@ -4551,14 +4551,14 @@
         <v>0.5110220440881763</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.3018116740575686</v>
+        <v>-0.4805560304023526</v>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="n">
         <v>0.5110220440881763</v>
       </c>
       <c r="F257" t="n">
-        <v>-0.1391976576294219</v>
+        <v>-0.6678627716104366</v>
       </c>
     </row>
     <row r="258">
@@ -4567,14 +4567,14 @@
         <v>0.5130260521042084</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.2875925856858036</v>
+        <v>-0.4964720363273872</v>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="n">
         <v>0.5130260521042084</v>
       </c>
       <c r="F258" t="n">
-        <v>-0.1129696876861877</v>
+        <v>-0.6542978588861187</v>
       </c>
     </row>
     <row r="259">
@@ -4583,14 +4583,14 @@
         <v>0.5150300601202404</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.2766772630489597</v>
+        <v>-0.5100384586973741</v>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="n">
         <v>0.5150300601202404</v>
       </c>
       <c r="F259" t="n">
-        <v>-0.08648948220942569</v>
+        <v>-0.6409829886055265</v>
       </c>
     </row>
     <row r="260">
@@ -4599,14 +4599,14 @@
         <v>0.5170340681362725</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.2725294907064864</v>
+        <v>-0.5215152720456304</v>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="n">
         <v>0.5170340681362725</v>
       </c>
       <c r="F260" t="n">
-        <v>-0.05955691703940703</v>
+        <v>-0.6280484480630608</v>
       </c>
     </row>
     <row r="261">
@@ -4615,14 +4615,14 @@
         <v>0.5190380761523046</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.2773177002913203</v>
+        <v>-0.5313196306710281</v>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="n">
         <v>0.5190380761523046</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.03226794841831281</v>
+        <v>-0.6155696836591835</v>
       </c>
     </row>
     <row r="262">
@@ -4631,14 +4631,14 @@
         <v>0.5210420841683366</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.2906777490642609</v>
+        <v>-0.5399682709859246</v>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="n">
         <v>0.5210420841683366</v>
       </c>
       <c r="F262" t="n">
-        <v>-0.005762709886811701</v>
+        <v>-0.6034833499135783</v>
       </c>
     </row>
     <row r="263">
@@ -4647,14 +4647,14 @@
         <v>0.5230460921843687</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.3098558578528173</v>
+        <v>-0.548012123980312</v>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="n">
         <v>0.5230460921843687</v>
       </c>
       <c r="F263" t="n">
-        <v>0.01740727478517901</v>
+        <v>-0.5915240377960271</v>
       </c>
     </row>
     <row r="264">
@@ -4663,14 +4663,14 @@
         <v>0.5250501002004008</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.3311407898873888</v>
+        <v>-0.5559894579097326</v>
       </c>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="n">
         <v>0.5250501002004008</v>
       </c>
       <c r="F264" t="n">
-        <v>0.03390207755229526</v>
+        <v>-0.5792436236951815</v>
       </c>
     </row>
     <row r="265">
@@ -4679,14 +4679,14 @@
         <v>0.5270541082164328</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.3515062901645416</v>
+        <v>-0.5643837409520479</v>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="n">
         <v>0.5270541082164328</v>
       </c>
       <c r="F265" t="n">
-        <v>0.04112406821520465</v>
+        <v>-0.5661098075874063</v>
       </c>
     </row>
     <row r="266">
@@ -4695,14 +4695,14 @@
         <v>0.5290581162324649</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.3694472393865387</v>
+        <v>-0.5735762683478157</v>
       </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="n">
         <v>0.5290581162324649</v>
       </c>
       <c r="F266" t="n">
-        <v>0.03866268391068375</v>
+        <v>-0.5516193230694477</v>
       </c>
     </row>
     <row r="267">
@@ -4711,14 +4711,14 @@
         <v>0.531062124248497</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.3848352760514168</v>
+        <v>-0.5838100000153853</v>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="n">
         <v>0.531062124248497</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0285415449027761</v>
+        <v>-0.5353762355638949</v>
       </c>
     </row>
     <row r="268">
@@ -4727,14 +4727,14 @@
         <v>0.533066132264529</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.398306884187474</v>
+        <v>-0.5951961673280005</v>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="n">
         <v>0.533066132264529</v>
       </c>
       <c r="F268" t="n">
-        <v>0.01410978053274549</v>
+        <v>-0.5171537360070305</v>
       </c>
     </row>
     <row r="269">
@@ -4743,14 +4743,14 @@
         <v>0.5350701402805611</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.4107362350854339</v>
+        <v>-0.6077494932179102</v>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="n">
         <v>0.5350701402805611</v>
       </c>
       <c r="F269" t="n">
-        <v>-0.001507805798929094</v>
+        <v>-0.4969539352068068</v>
       </c>
     </row>
     <row r="270">
@@ -4759,14 +4759,14 @@
         <v>0.5370741482965932</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.4229868910654635</v>
+        <v>-0.621398114275473</v>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="n">
         <v>0.5370741482965932</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.01636107233871773</v>
+        <v>-0.4750056950929218</v>
       </c>
     </row>
     <row r="271">
@@ -4775,14 +4775,14 @@
         <v>0.5390781563126252</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.4358343122268184</v>
+        <v>-0.6359444611791751</v>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="n">
         <v>0.5390781563126252</v>
       </c>
       <c r="F271" t="n">
-        <v>-0.02972343387531561</v>
+        <v>-0.4516328150800824</v>
       </c>
     </row>
     <row r="272">
@@ -4791,14 +4791,14 @@
         <v>0.5410821643286573</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.4498842668735563</v>
+        <v>-0.6510298900554959</v>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="n">
         <v>0.5410821643286573</v>
       </c>
       <c r="F272" t="n">
-        <v>-0.04163841594939945</v>
+        <v>-0.4270589296944908</v>
       </c>
     </row>
     <row r="273">
@@ -4807,14 +4807,14 @@
         <v>0.5430861723446894</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.4654519905454439</v>
+        <v>-0.666185685325844</v>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="n">
         <v>0.5430861723446894</v>
       </c>
       <c r="F273" t="n">
-        <v>-0.05245758125160823</v>
+        <v>-0.4013240662734853</v>
       </c>
     </row>
     <row r="274">
@@ -4823,14 +4823,14 @@
         <v>0.5450901803607214</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.4824877294648493</v>
+        <v>-0.6809875713003657</v>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="n">
         <v>0.5450901803607214</v>
       </c>
       <c r="F274" t="n">
-        <v>-0.06257485770553234</v>
+        <v>-0.3744056540512661</v>
       </c>
     </row>
     <row r="275">
@@ -4839,14 +4839,14 @@
         <v>0.5470941883767535</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.5006535024633211</v>
+        <v>-0.6952322025980463</v>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="n">
         <v>0.5470941883767535</v>
       </c>
       <c r="F275" t="n">
-        <v>-0.0723164577924319</v>
+        <v>-0.3464330373772675</v>
       </c>
     </row>
     <row r="276">
@@ -4855,14 +4855,14 @@
         <v>0.5490981963927856</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.5195367608145981</v>
+        <v>-0.7090187047420889</v>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
         <v>0.5490981963927856</v>
       </c>
       <c r="F276" t="n">
-        <v>-0.08190453968671667</v>
+        <v>-0.3177984722500544</v>
       </c>
     </row>
     <row r="277">
@@ -4871,14 +4871,14 @@
         <v>0.5511022044088176</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.538844244699332</v>
+        <v>-0.7226785300050116</v>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="n">
         <v>0.5511022044088176</v>
       </c>
       <c r="F277" t="n">
-        <v>-0.09148461793104071</v>
+        <v>-0.2890820107795213</v>
       </c>
     </row>
     <row r="278">
@@ -4887,14 +4887,14 @@
         <v>0.5531062124248497</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.5584450197283362</v>
+        <v>-0.7365848616217084</v>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="n">
         <v>0.5531062124248497</v>
       </c>
       <c r="F278" t="n">
-        <v>-0.1012072112633276</v>
+        <v>-0.2608986799857319</v>
       </c>
     </row>
     <row r="279">
@@ -4903,14 +4903,14 @@
         <v>0.5551102204408818</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.5782688667144146</v>
+        <v>-0.750940348552888</v>
       </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="n">
         <v>0.5551102204408818</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.1113077948425567</v>
+        <v>-0.2338044147950181</v>
       </c>
     </row>
     <row r="280">
@@ -4919,14 +4919,14 @@
         <v>0.5571142284569138</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.5981742494851897</v>
+        <v>-0.7656524080337738</v>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="n">
         <v>0.5571142284569138</v>
       </c>
       <c r="F280" t="n">
-        <v>-0.1221104225725945</v>
+        <v>-0.2082760142099498</v>
       </c>
     </row>
     <row r="281">
@@ -4935,14 +4935,14 @@
         <v>0.5591182364729459</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.6178958300312846</v>
+        <v>-0.7803658846117392</v>
       </c>
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="n">
         <v>0.5591182364729459</v>
       </c>
       <c r="F281" t="n">
-        <v>-0.1338998293534375</v>
+        <v>-0.1846680642126817</v>
       </c>
     </row>
     <row r="282">
@@ -4951,14 +4951,14 @@
         <v>0.561122244488978</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.63709883930422</v>
+        <v>-0.7946466030942855</v>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="n">
         <v>0.561122244488978</v>
       </c>
       <c r="F282" t="n">
-        <v>-0.1467039011054372</v>
+        <v>-0.1630837641504007</v>
       </c>
     </row>
     <row r="283">
@@ -4967,14 +4967,14 @@
         <v>0.56312625250501</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.6555065742720358</v>
+        <v>-0.8082224748419147</v>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="n">
         <v>0.56312625250501</v>
       </c>
       <c r="F283" t="n">
-        <v>-0.1600811444265954</v>
+        <v>-0.1432412165940244</v>
       </c>
     </row>
     <row r="284">
@@ -4983,14 +4983,14 @@
         <v>0.565130260521042</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.6730407160871321</v>
+        <v>-0.8211426415430403</v>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="n">
         <v>0.565130260521042</v>
       </c>
       <c r="F284" t="n">
-        <v>-0.1730231905405492</v>
+        <v>-0.1245037070058072</v>
       </c>
     </row>
     <row r="285">
@@ -4999,14 +4999,14 @@
         <v>0.567134268537074</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.6899002170811646</v>
+        <v>-0.8337659881132655</v>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="n">
         <v>0.567134268537074</v>
       </c>
       <c r="F285" t="n">
-        <v>-0.184062568430733</v>
+        <v>-0.1061358174186128</v>
       </c>
     </row>
     <row r="286">
@@ -5015,14 +5015,14 @@
         <v>0.5691382765531061</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.7065091384711806</v>
+        <v>-0.8466041925701427</v>
       </c>
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="n">
         <v>0.5691382765531061</v>
       </c>
       <c r="F286" t="n">
-        <v>-0.1916220345163616</v>
+        <v>-0.08764128663383441</v>
       </c>
     </row>
     <row r="287">
@@ -5031,14 +5031,14 @@
         <v>0.5711422845691382</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.7233338131888024</v>
+        <v>-0.8601186996317762</v>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="n">
         <v>0.5711422845691382</v>
       </c>
       <c r="F287" t="n">
-        <v>-0.1945088856212628</v>
+        <v>-0.06895572085699875</v>
       </c>
     </row>
     <row r="288">
@@ -5047,14 +5047,14 @@
         <v>0.5731462925851702</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.7406684703974222</v>
+        <v>-0.8745685116031444</v>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="n">
         <v>0.5731462925851702</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.1923290170453803</v>
+        <v>-0.05039664546631708</v>
       </c>
     </row>
     <row r="289">
@@ -5063,14 +5063,14 @@
         <v>0.5751503006012023</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.7585195453688443</v>
+        <v>-0.8899456528963603</v>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="n">
         <v>0.5751503006012023</v>
       </c>
       <c r="F289" t="n">
-        <v>-0.185593018938602</v>
+        <v>-0.03246483990060514</v>
       </c>
     </row>
     <row r="290">
@@ -5079,14 +5079,14 @@
         <v>0.5771543086172344</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.7766585467517834</v>
+        <v>-0.9059975133812641</v>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="n">
         <v>0.5771543086172344</v>
       </c>
       <c r="F290" t="n">
-        <v>-0.1754703673371946</v>
+        <v>-0.01563994440751761</v>
       </c>
     </row>
     <row r="291">
@@ -5095,14 +5095,14 @@
         <v>0.5791583166332664</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.7948033164076462</v>
+        <v>-0.9223233719677282</v>
       </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="n">
         <v>0.5791583166332664</v>
       </c>
       <c r="F291" t="n">
-        <v>-0.1633628545727243</v>
+        <v>-0.0001868046709937645</v>
       </c>
     </row>
     <row r="292">
@@ -5111,14 +5111,14 @@
         <v>0.5811623246492985</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.8128030866305748</v>
+        <v>-0.9385135270294802</v>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="n">
         <v>0.5811623246492985</v>
       </c>
       <c r="F292" t="n">
-        <v>-0.1505254385514419</v>
+        <v>0.01406708495987115</v>
       </c>
     </row>
     <row r="293">
@@ -5127,14 +5127,14 @@
         <v>0.5831663326653306</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.8307048347803019</v>
+        <v>-0.9542696523990226</v>
       </c>
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="n">
         <v>0.5831663326653306</v>
       </c>
       <c r="F293" t="n">
-        <v>-0.1378451709811059</v>
+        <v>0.02791127143902765</v>
       </c>
     </row>
     <row r="294">
@@ -5143,14 +5143,14 @@
         <v>0.5851703406813626</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.8486658282369208</v>
+        <v>-0.9694408919996853</v>
       </c>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="n">
         <v>0.5851703406813626</v>
       </c>
       <c r="F294" t="n">
-        <v>-0.1257555011031393</v>
+        <v>0.04269321258985923</v>
       </c>
     </row>
     <row r="295">
@@ -5159,14 +5159,14 @@
         <v>0.5871743486973947</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.8667850701599231</v>
+        <v>-0.9839681611611718</v>
       </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="n">
         <v>0.5871743486973947</v>
       </c>
       <c r="F295" t="n">
-        <v>-0.1142381985060244</v>
+        <v>0.05979400019014341</v>
       </c>
     </row>
     <row r="296">
@@ -5175,14 +5175,14 @@
         <v>0.5891783567134268</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.8849777227333924</v>
+        <v>-0.9977911575699787</v>
       </c>
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="n">
         <v>0.5891783567134268</v>
       </c>
       <c r="F296" t="n">
-        <v>-0.1029137794864414</v>
+        <v>0.0796506018033957</v>
       </c>
     </row>
     <row r="297">
@@ -5191,14 +5191,14 @@
         <v>0.5911823647294588</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.9029750910844325</v>
+        <v>-1.010787940908404</v>
       </c>
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="n">
         <v>0.5911823647294588</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.0912317496796107</v>
+        <v>0.1007632622657102</v>
       </c>
     </row>
     <row r="298">
@@ -5207,14 +5207,14 @@
         <v>0.5931863727454909</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.920435543695451</v>
+        <v>-1.022779756558422</v>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="n">
         <v>0.5931863727454909</v>
       </c>
       <c r="F298" t="n">
-        <v>-0.07871569688857438</v>
+        <v>0.1194873127937162</v>
       </c>
     </row>
     <row r="299">
@@ -5223,14 +5223,14 @@
         <v>0.595190380761523</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.9370783781277392</v>
+        <v>-1.033602789284382</v>
       </c>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="n">
         <v>0.595190380761523</v>
       </c>
       <c r="F299" t="n">
-        <v>-0.06515779128674998</v>
+        <v>0.1312155409669946</v>
       </c>
     </row>
     <row r="300">
@@ -5239,14 +5239,14 @@
         <v>0.597194388777555</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.952751057884939</v>
+        <v>-1.043215335079386</v>
       </c>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="n">
         <v>0.597194388777555</v>
       </c>
       <c r="F300" t="n">
-        <v>-0.05067184435063028</v>
+        <v>0.1325844293346115</v>
       </c>
     </row>
     <row r="301">
@@ -5255,14 +5255,14 @@
         <v>0.5991983967935871</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.967417450298502</v>
+        <v>-1.05178488267509</v>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="n">
         <v>0.5991983967935871</v>
       </c>
       <c r="F301" t="n">
-        <v>-0.03559245425315823</v>
+        <v>0.1232947099481948</v>
       </c>
     </row>
     <row r="302">
@@ -5271,14 +5271,14 @@
         <v>0.6012024048096192</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.9811171732945839</v>
+        <v>-1.059701497185726</v>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="n">
         <v>0.6012024048096192</v>
       </c>
       <c r="F302" t="n">
-        <v>-0.02028682018658737</v>
+        <v>0.1061970379805632</v>
       </c>
     </row>
     <row r="303">
@@ -5287,14 +5287,14 @@
         <v>0.6032064128256512</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.9939434005440966</v>
+        <v>-1.06750514886774</v>
       </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="n">
         <v>0.6032064128256512</v>
       </c>
       <c r="F303" t="n">
-        <v>-0.00498643422684881</v>
+        <v>0.08563981819277439</v>
       </c>
     </row>
     <row r="304">
@@ -5303,14 +5303,14 @@
         <v>0.6052104208416833</v>
       </c>
       <c r="C304" t="n">
-        <v>-1.006020892139055</v>
+        <v>-1.075786912230955</v>
       </c>
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="n">
         <v>0.6052104208416833</v>
       </c>
       <c r="F304" t="n">
-        <v>0.01028418720213818</v>
+        <v>0.06539891678820033</v>
       </c>
     </row>
     <row r="305">
@@ -5319,14 +5319,14 @@
         <v>0.6072144288577154</v>
       </c>
       <c r="C305" t="n">
-        <v>-1.017449130436892</v>
+        <v>-1.085117789172389</v>
       </c>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="n">
         <v>0.6072144288577154</v>
       </c>
       <c r="F305" t="n">
-        <v>0.02567112563842736</v>
+        <v>0.04753758125057279</v>
       </c>
     </row>
     <row r="306">
@@ -5335,14 +5335,14 @@
         <v>0.6092184368737474</v>
       </c>
       <c r="C306" t="n">
-        <v>-1.028242170634879</v>
+        <v>-1.095984906426358</v>
       </c>
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="n">
         <v>0.6092184368737474</v>
       </c>
       <c r="F306" t="n">
-        <v>0.04140713637135428</v>
+        <v>0.03248824432827635</v>
       </c>
     </row>
     <row r="307">
@@ -5351,14 +5351,14 @@
         <v>0.6112224448897795</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.038351551153435</v>
+        <v>-1.108652891578765</v>
       </c>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="n">
         <v>0.6112224448897795</v>
       </c>
       <c r="F307" t="n">
-        <v>0.05775931478601011</v>
+        <v>0.01975559821051246</v>
       </c>
     </row>
     <row r="308">
@@ -5367,14 +5367,14 @@
         <v>0.6132264529058116</v>
       </c>
       <c r="C308" t="n">
-        <v>-1.047791938934741</v>
+        <v>-1.122870679896818</v>
       </c>
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="n">
         <v>0.6132264529058116</v>
       </c>
       <c r="F308" t="n">
-        <v>0.07502728613645437</v>
+        <v>0.008565799637832753</v>
       </c>
     </row>
     <row r="309">
@@ -5383,14 +5383,14 @@
         <v>0.6152304609218436</v>
       </c>
       <c r="C309" t="n">
-        <v>-1.056775822469267</v>
+        <v>-1.137478661627616</v>
       </c>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="n">
         <v>0.6152304609218436</v>
       </c>
       <c r="F309" t="n">
-        <v>0.09353703647129191</v>
+        <v>-0.00179789443905006</v>
       </c>
     </row>
     <row r="310">
@@ -5399,14 +5399,14 @@
         <v>0.6172344689378757</v>
       </c>
       <c r="C310" t="n">
-        <v>-1.065761203844592</v>
+        <v>-1.150190792980206</v>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="n">
         <v>0.6172344689378757</v>
       </c>
       <c r="F310" t="n">
-        <v>0.1135652265453496</v>
+        <v>-0.01188562823370201</v>
       </c>
     </row>
     <row r="311">
@@ -5415,14 +5415,14 @@
         <v>0.6192384769539078</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.075394010526427</v>
+        <v>-1.157949315806751</v>
       </c>
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="n">
         <v>0.6192384769539078</v>
       </c>
       <c r="F311" t="n">
-        <v>0.1352188669150039</v>
+        <v>-0.02204262331242087</v>
       </c>
     </row>
     <row r="312">
@@ -5431,14 +5431,14 @@
         <v>0.6212424849699398</v>
       </c>
       <c r="C312" t="n">
-        <v>-1.086384752860916</v>
+        <v>-1.157992129666283</v>
       </c>
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="n">
         <v>0.6212424849699398</v>
       </c>
       <c r="F312" t="n">
-        <v>0.1583703218375031</v>
+        <v>-0.03236883437459371</v>
       </c>
     </row>
     <row r="313">
@@ -5447,14 +5447,14 @@
         <v>0.6232464929859719</v>
       </c>
       <c r="C313" t="n">
-        <v>-1.099304108122386</v>
+        <v>-1.149167134985852</v>
       </c>
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="n">
         <v>0.6232464929859719</v>
       </c>
       <c r="F313" t="n">
-        <v>0.1827248292323542</v>
+        <v>-0.04266138702432969</v>
       </c>
     </row>
     <row r="314">
@@ -5463,14 +5463,14 @@
         <v>0.625250501002004</v>
       </c>
       <c r="C314" t="n">
-        <v>-1.114203045845281</v>
+        <v>-1.132599817887193</v>
       </c>
       <c r="D314" t="inlineStr"/>
       <c r="E314" t="n">
         <v>0.625250501002004</v>
       </c>
       <c r="F314" t="n">
-        <v>0.2079671823435224</v>
+        <v>-0.05236800591120262</v>
       </c>
     </row>
     <row r="315">
@@ -5479,14 +5479,14 @@
         <v>0.627254509018036</v>
       </c>
       <c r="C315" t="n">
-        <v>-1.130082823003463</v>
+        <v>-1.111159445693492</v>
       </c>
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="n">
         <v>0.627254509018036</v>
       </c>
       <c r="F315" t="n">
-        <v>0.2338494941826745</v>
+        <v>-0.06062898999060608</v>
       </c>
     </row>
     <row r="316">
@@ -5495,14 +5495,14 @@
         <v>0.6292585170340681</v>
       </c>
       <c r="C316" t="n">
-        <v>-1.14454556663332</v>
+        <v>-1.088070277323019</v>
       </c>
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="n">
         <v>0.6292585170340681</v>
       </c>
       <c r="F316" t="n">
-        <v>0.2601376241993432</v>
+        <v>-0.06645728492335459</v>
       </c>
     </row>
     <row r="317">
@@ -5511,14 +5511,14 @@
         <v>0.6312625250501002</v>
       </c>
       <c r="C317" t="n">
-        <v>-1.154143324757937</v>
+        <v>-1.065622009519387</v>
       </c>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="n">
         <v>0.6312625250501002</v>
       </c>
       <c r="F317" t="n">
-        <v>0.2864852040650942</v>
+        <v>-0.06904852387292365</v>
       </c>
     </row>
     <row r="318">
@@ -5527,14 +5527,14 @@
         <v>0.6332665330661322</v>
       </c>
       <c r="C318" t="n">
-        <v>-1.155623201925253</v>
+        <v>-1.044693047884575</v>
       </c>
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="n">
         <v>0.6332665330661322</v>
       </c>
       <c r="F318" t="n">
-        <v>0.3124120977070062</v>
+        <v>-0.06809184278448026</v>
       </c>
     </row>
     <row r="319">
@@ -5543,14 +5543,14 @@
         <v>0.6352705410821643</v>
       </c>
       <c r="C319" t="n">
-        <v>-1.147505989464563</v>
+        <v>-1.025071383845203</v>
       </c>
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="n">
         <v>0.6352705410821643</v>
       </c>
       <c r="F319" t="n">
-        <v>0.3374930499735598</v>
+        <v>-0.06389986963321304</v>
       </c>
     </row>
     <row r="320">
@@ -5559,14 +5559,14 @@
         <v>0.6372745490981964</v>
       </c>
       <c r="C320" t="n">
-        <v>-1.130926096308542</v>
+        <v>-1.006074196759053</v>
       </c>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="n">
         <v>0.6372745490981964</v>
       </c>
       <c r="F320" t="n">
-        <v>0.3616596263140273</v>
+        <v>-0.05726782679437665</v>
       </c>
     </row>
     <row r="321">
@@ -5575,14 +5575,14 @@
         <v>0.6392785571142284</v>
       </c>
       <c r="C321" t="n">
-        <v>-1.109063333050773</v>
+        <v>-0.9870083335090436</v>
       </c>
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="n">
         <v>0.6392785571142284</v>
       </c>
       <c r="F321" t="n">
-        <v>0.385357539521626</v>
+        <v>-0.04914412057053257</v>
       </c>
     </row>
     <row r="322">
@@ -5591,14 +5591,14 @@
         <v>0.6412825651302605</v>
       </c>
       <c r="C322" t="n">
-        <v>-1.085561802372547</v>
+        <v>-0.9673431930695789</v>
       </c>
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="n">
         <v>0.6412825651302605</v>
       </c>
       <c r="F322" t="n">
-        <v>0.4093286078336046</v>
+        <v>-0.04031069045259082</v>
       </c>
     </row>
     <row r="323">
@@ -5607,14 +5607,14 @@
         <v>0.6432865731462926</v>
       </c>
       <c r="C323" t="n">
-        <v>-1.063029852898756</v>
+        <v>-0.9467116686352108</v>
       </c>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="n">
         <v>0.6432865731462926</v>
       </c>
       <c r="F323" t="n">
-        <v>0.4340303632827837</v>
+        <v>-0.03124024820874685</v>
       </c>
     </row>
     <row r="324">
@@ -5623,14 +5623,14 @@
         <v>0.6452905811623246</v>
       </c>
       <c r="C324" t="n">
-        <v>-1.042451409145105</v>
+        <v>-0.9249112200635299</v>
       </c>
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="n">
         <v>0.6452905811623246</v>
       </c>
       <c r="F324" t="n">
-        <v>0.4590108281306869</v>
+        <v>-0.02216101566013117</v>
       </c>
     </row>
     <row r="325">
@@ -5639,14 +5639,14 @@
         <v>0.6472945891783567</v>
       </c>
       <c r="C325" t="n">
-        <v>-1.023534111267887</v>
+        <v>-0.9019927000948187</v>
       </c>
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="n">
         <v>0.6472945891783567</v>
       </c>
       <c r="F325" t="n">
-        <v>0.4826927639352518</v>
+        <v>-0.01321408742182698</v>
       </c>
     </row>
     <row r="326">
@@ -5655,14 +5655,14 @@
         <v>0.6492985971943888</v>
       </c>
       <c r="C326" t="n">
-        <v>-1.005468589799041</v>
+        <v>-0.8784238306856089</v>
       </c>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="n">
         <v>0.6492985971943888</v>
       </c>
       <c r="F326" t="n">
-        <v>0.5028419305618939</v>
+        <v>-0.004550712919475681</v>
       </c>
     </row>
     <row r="327">
@@ -5671,14 +5671,14 @@
         <v>0.6513026052104208</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.9875691353349653</v>
+        <v>-0.8552097353462849</v>
       </c>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="n">
         <v>0.6513026052104208</v>
       </c>
       <c r="F327" t="n">
-        <v>0.5175368164909122</v>
+        <v>0.003699546404781905</v>
       </c>
     </row>
     <row r="328">
@@ -5687,14 +5687,14 @@
         <v>0.6533066132264529</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.9695599020421761</v>
+        <v>-0.833810985809435</v>
       </c>
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="n">
         <v>0.6533066132264529</v>
       </c>
       <c r="F328" t="n">
-        <v>0.5260580030302654</v>
+        <v>0.01152047089323707</v>
       </c>
     </row>
     <row r="329">
@@ -5703,14 +5703,14 @@
         <v>0.655310621242485</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.9515560695026872</v>
+        <v>-0.8157864257538288</v>
       </c>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="n">
         <v>0.655310621242485</v>
       </c>
       <c r="F329" t="n">
-        <v>0.5291412578409731</v>
+        <v>0.01904971742419783</v>
       </c>
     </row>
     <row r="330">
@@ -5719,14 +5719,14 @@
         <v>0.657314629258517</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.9339226771048639</v>
+        <v>-0.8022759695230639</v>
       </c>
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="n">
         <v>0.657314629258517</v>
       </c>
       <c r="F330" t="n">
-        <v>0.5285044511640264</v>
+        <v>0.02653539821429415</v>
       </c>
     </row>
     <row r="331">
@@ -5735,14 +5735,14 @@
         <v>0.6593186372745491</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.9171479254516218</v>
+        <v>-0.7936078757117475</v>
       </c>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="n">
         <v>0.6593186372745491</v>
       </c>
       <c r="F331" t="n">
-        <v>0.5260483510601901</v>
+        <v>0.03427985250150301</v>
       </c>
     </row>
     <row r="332">
@@ -5751,14 +5751,14 @@
         <v>0.6613226452905812</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.9017531668736312</v>
+        <v>-0.789266875696896</v>
       </c>
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="n">
         <v>0.6613226452905812</v>
       </c>
       <c r="F332" t="n">
-        <v>0.5232315603749379</v>
+        <v>0.04265117951206387</v>
       </c>
     </row>
     <row r="333">
@@ -5767,14 +5767,14 @@
         <v>0.6633266533066132</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.8881768833588576</v>
+        <v>-0.7882140717475732</v>
       </c>
       <c r="D333" t="inlineStr"/>
       <c r="E333" t="n">
         <v>0.6633266533066132</v>
       </c>
       <c r="F333" t="n">
-        <v>0.5208506555052063</v>
+        <v>0.05215579907272955</v>
       </c>
     </row>
     <row r="334">
@@ -5783,14 +5783,14 @@
         <v>0.6653306613226453</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.8766069022592544</v>
+        <v>-0.7893208871851382</v>
       </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="n">
         <v>0.6653306613226453</v>
       </c>
       <c r="F334" t="n">
-        <v>0.5191388459739772</v>
+        <v>0.06348297869038647</v>
       </c>
     </row>
     <row r="335">
@@ -5799,14 +5799,14 @@
         <v>0.6673346693386772</v>
       </c>
       <c r="C335" t="n">
-        <v>-0.8668300441893346</v>
+        <v>-0.7916745243646746</v>
       </c>
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="n">
         <v>0.6673346693386772</v>
       </c>
       <c r="F335" t="n">
-        <v>0.5179874739902315</v>
+        <v>0.07743041660262823</v>
       </c>
     </row>
     <row r="336">
@@ -5815,14 +5815,14 @@
         <v>0.6693386773547093</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.8581872862417799</v>
+        <v>-0.7946677411059219</v>
       </c>
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="n">
         <v>0.6693386773547093</v>
       </c>
       <c r="F336" t="n">
-        <v>0.5171443230887964</v>
+        <v>0.09469367880764409</v>
       </c>
     </row>
     <row r="337">
@@ -5831,14 +5831,14 @@
         <v>0.6713426853707414</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.8496841508300422</v>
+        <v>-0.7979334193739172</v>
       </c>
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="n">
         <v>0.6713426853707414</v>
       </c>
       <c r="F337" t="n">
-        <v>0.5163418303466871</v>
+        <v>0.1155895901206323</v>
       </c>
     </row>
     <row r="338">
@@ -5847,14 +5847,14 @@
         <v>0.6733466933867734</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.8402270913638021</v>
+        <v>-0.8012192837345552</v>
       </c>
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="n">
         <v>0.6733466933867734</v>
       </c>
       <c r="F338" t="n">
-        <v>0.5153681303009854</v>
+        <v>0.1398398838509612</v>
       </c>
     </row>
     <row r="339">
@@ -5863,14 +5863,14 @@
         <v>0.6753507014028055</v>
       </c>
       <c r="C339" t="n">
-        <v>-0.8289033117410191</v>
+        <v>-0.8042651584767491</v>
       </c>
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="n">
         <v>0.6753507014028055</v>
       </c>
       <c r="F339" t="n">
-        <v>0.5141110191208114</v>
+        <v>0.1665364917581656</v>
       </c>
     </row>
     <row r="340">
@@ -5879,14 +5879,14 @@
         <v>0.6773547094188376</v>
       </c>
       <c r="C340" t="n">
-        <v>-0.8151961002322192</v>
+        <v>-0.8067178737809826</v>
       </c>
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="n">
         <v>0.6773547094188376</v>
       </c>
       <c r="F340" t="n">
-        <v>0.5125985108482346</v>
+        <v>0.1943334114429089</v>
       </c>
     </row>
     <row r="341">
@@ -5895,14 +5895,14 @@
         <v>0.6793587174348696</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.7990505846422375</v>
+        <v>-0.8081103562624553</v>
       </c>
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="n">
         <v>0.6793587174348696</v>
       </c>
       <c r="F341" t="n">
-        <v>0.5110317234622574</v>
+        <v>0.2217925379525318</v>
       </c>
     </row>
     <row r="342">
@@ -5911,14 +5911,14 @@
         <v>0.6813627254509017</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.7807759650914559</v>
+        <v>-0.8079230229262464</v>
       </c>
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="n">
         <v>0.6813627254509017</v>
       </c>
       <c r="F342" t="n">
-        <v>0.5097748498889302</v>
+        <v>0.2477417802690421</v>
       </c>
     </row>
     <row r="343">
@@ -5927,14 +5927,14 @@
         <v>0.6833667334669338</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.7608557804919072</v>
+        <v>-0.8057073553961793</v>
       </c>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="n">
         <v>0.6833667334669338</v>
       </c>
       <c r="F343" t="n">
-        <v>0.5092836055487424</v>
+        <v>0.2715190081678005</v>
       </c>
     </row>
     <row r="344">
@@ -5943,14 +5943,14 @@
         <v>0.6853707414829658</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.7397831523978722</v>
+        <v>-0.8012236497499448</v>
       </c>
       <c r="D344" t="inlineStr"/>
       <c r="E344" t="n">
         <v>0.6853707414829658</v>
       </c>
       <c r="F344" t="n">
-        <v>0.5099942428594862</v>
+        <v>0.2930416626969421</v>
       </c>
     </row>
     <row r="345">
@@ -5959,14 +5959,14 @@
         <v>0.6873747494989979</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.7179740636546472</v>
+        <v>-0.7945291887230554</v>
       </c>
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="n">
         <v>0.6873747494989979</v>
       </c>
       <c r="F345" t="n">
-        <v>0.5122340966212729</v>
+        <v>0.312712546653213</v>
       </c>
     </row>
     <row r="346">
@@ -5975,14 +5975,14 @@
         <v>0.68937875751503</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.6957166685107301</v>
+        <v>-0.7859658862580173</v>
       </c>
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="n">
         <v>0.68937875751503</v>
       </c>
       <c r="F346" t="n">
-        <v>0.5161928458390608</v>
+        <v>0.3312265874983212</v>
       </c>
     </row>
     <row r="347">
@@ -5991,14 +5991,14 @@
         <v>0.691382765531062</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.6730840863204512</v>
+        <v>-0.7760334449612365</v>
       </c>
       <c r="D347" t="inlineStr"/>
       <c r="E347" t="n">
         <v>0.691382765531062</v>
       </c>
       <c r="F347" t="n">
-        <v>0.5219317198528466</v>
+        <v>0.3493792703080125</v>
       </c>
     </row>
     <row r="348">
@@ -6007,14 +6007,14 @@
         <v>0.6933867735470941</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.6497714404857959</v>
+        <v>-0.7651895639157172</v>
       </c>
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
         <v>0.6933867735470941</v>
       </c>
       <c r="F348" t="n">
-        <v>0.5293869604021008</v>
+        <v>0.3679434242562092</v>
       </c>
     </row>
     <row r="349">
@@ -6023,14 +6023,14 @@
         <v>0.6953907815631262</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.6249197237092881</v>
+        <v>-0.7536702704163756</v>
       </c>
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="n">
         <v>0.6953907815631262</v>
       </c>
       <c r="F349" t="n">
-        <v>0.5383635313349292</v>
+        <v>0.3876078911991288</v>
       </c>
     </row>
     <row r="350">
@@ -6039,14 +6039,14 @@
         <v>0.6973947895791582</v>
       </c>
       <c r="C350" t="n">
-        <v>-0.5969931227468465</v>
+        <v>-0.7414266815350301</v>
       </c>
       <c r="D350" t="inlineStr"/>
       <c r="E350" t="n">
         <v>0.6973947895791582</v>
       </c>
       <c r="F350" t="n">
-        <v>0.5485587027404841</v>
+        <v>0.4089165719235575</v>
       </c>
     </row>
     <row r="351">
@@ -6055,14 +6055,14 @@
         <v>0.6993987975951903</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.5639045189886397</v>
+        <v>-0.7282085613929816</v>
       </c>
       <c r="D351" t="inlineStr"/>
       <c r="E351" t="n">
         <v>0.6993987975951903</v>
       </c>
       <c r="F351" t="n">
-        <v>0.5596323896990941</v>
+        <v>0.4321657087146635</v>
       </c>
     </row>
     <row r="352">
@@ -6071,14 +6071,14 @@
         <v>0.7014028056112224</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.5236575960146088</v>
+        <v>-0.7137441845307783</v>
       </c>
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="n">
         <v>0.7014028056112224</v>
       </c>
       <c r="F352" t="n">
-        <v>0.5712782992386691</v>
+        <v>0.4572754693149814</v>
       </c>
     </row>
     <row r="353">
@@ -6087,14 +6087,14 @@
         <v>0.7034068136272544</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.4757348017840012</v>
+        <v>-0.6979193558304715</v>
       </c>
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="n">
         <v>0.7034068136272544</v>
       </c>
       <c r="F353" t="n">
-        <v>0.5832459988286129</v>
+        <v>0.4836937904063262</v>
       </c>
     </row>
     <row r="354">
@@ -6103,14 +6103,14 @@
         <v>0.7054108216432865</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.422916103019256</v>
+        <v>-0.6808727903003</v>
       </c>
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="n">
         <v>0.7054108216432865</v>
       </c>
       <c r="F354" t="n">
-        <v>0.5953222695474842</v>
+        <v>0.5103865206252662</v>
       </c>
     </row>
     <row r="355">
@@ -6119,14 +6119,14 @@
         <v>0.7074148296593186</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.3723421656530158</v>
+        <v>-0.6629659658764707</v>
       </c>
       <c r="D355" t="inlineStr"/>
       <c r="E355" t="n">
         <v>0.7074148296593186</v>
       </c>
       <c r="F355" t="n">
-        <v>0.6073270075574209</v>
+        <v>0.5359453942088905</v>
       </c>
     </row>
     <row r="356">
@@ -6135,14 +6135,14 @@
         <v>0.7094188376753506</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.3343107808645986</v>
+        <v>-0.6446406748527005</v>
       </c>
       <c r="D356" t="inlineStr"/>
       <c r="E356" t="n">
         <v>0.7094188376753506</v>
       </c>
       <c r="F356" t="n">
-        <v>0.6191596275699456</v>
+        <v>0.5588316526472296</v>
       </c>
     </row>
     <row r="357">
@@ -6151,14 +6151,14 @@
         <v>0.7114228456913827</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.3184270723713151</v>
+        <v>-0.6262377399612088</v>
       </c>
       <c r="D357" t="inlineStr"/>
       <c r="E357" t="n">
         <v>0.7114228456913827</v>
       </c>
       <c r="F357" t="n">
-        <v>0.6308672813941424</v>
+        <v>0.577746309582881</v>
       </c>
     </row>
     <row r="358">
@@ -6167,14 +6167,14 @@
         <v>0.7134268537074148</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.3289196482723036</v>
+        <v>-0.60788592066174</v>
       </c>
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="n">
         <v>0.7134268537074148</v>
       </c>
       <c r="F358" t="n">
-        <v>0.6427082280646417</v>
+        <v>0.5920943484320301</v>
       </c>
     </row>
     <row r="359">
@@ -6183,14 +6183,14 @@
         <v>0.7154308617234468</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.3622420704102859</v>
+        <v>-0.589538204126502</v>
       </c>
       <c r="D359" t="inlineStr"/>
       <c r="E359" t="n">
         <v>0.7154308617234468</v>
       </c>
       <c r="F359" t="n">
-        <v>0.6552239524574289</v>
+        <v>0.6024319887747256</v>
       </c>
     </row>
     <row r="360">
@@ -6199,14 +6199,14 @@
         <v>0.7174348697394789</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.4088162879801013</v>
+        <v>-0.5711374093127141</v>
       </c>
       <c r="D360" t="inlineStr"/>
       <c r="E360" t="n">
         <v>0.7174348697394789</v>
       </c>
       <c r="F360" t="n">
-        <v>0.6692954044285812</v>
+        <v>0.6106814631055617</v>
       </c>
     </row>
     <row r="361">
@@ -6215,14 +6215,14 @@
         <v>0.719438877755511</v>
       </c>
       <c r="C361" t="n">
-        <v>-0.4577277059701898</v>
+        <v>-0.5527981349736937</v>
       </c>
       <c r="D361" t="inlineStr"/>
       <c r="E361" t="n">
         <v>0.719438877755511</v>
       </c>
       <c r="F361" t="n">
-        <v>0.686090887383086</v>
+        <v>0.6198787851155649</v>
       </c>
     </row>
     <row r="362">
@@ -6231,14 +6231,14 @@
         <v>0.721442885771543</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.5011418761728053</v>
+        <v>-0.5348837464597564</v>
       </c>
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="n">
         <v>0.721442885771543</v>
       </c>
       <c r="F362" t="n">
-        <v>0.7066406914347027</v>
+        <v>0.6332209901640133</v>
       </c>
     </row>
     <row r="363">
@@ -6247,14 +6247,14 @@
         <v>0.7234468937875751</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.5359853882334542</v>
+        <v>-0.517927933499631</v>
       </c>
       <c r="D363" t="inlineStr"/>
       <c r="E363" t="n">
         <v>0.7234468937875751</v>
       </c>
       <c r="F363" t="n">
-        <v>0.7308279506308386</v>
+        <v>0.6523941471618688</v>
       </c>
     </row>
     <row r="364">
@@ -6263,14 +6263,14 @@
         <v>0.7254509018036072</v>
       </c>
       <c r="C364" t="n">
-        <v>-0.5628964485603969</v>
+        <v>-0.5024457733924058</v>
       </c>
       <c r="D364" t="inlineStr"/>
       <c r="E364" t="n">
         <v>0.7254509018036072</v>
       </c>
       <c r="F364" t="n">
-        <v>0.7560709630978679</v>
+        <v>0.6757368219646896</v>
       </c>
     </row>
     <row r="365">
@@ -6279,14 +6279,14 @@
         <v>0.7274549098196392</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.58413236643975</v>
+        <v>-0.4887338558273912</v>
       </c>
       <c r="D365" t="inlineStr"/>
       <c r="E365" t="n">
         <v>0.7274549098196392</v>
       </c>
       <c r="F365" t="n">
-        <v>0.776709126909054</v>
+        <v>0.6974752225041365</v>
       </c>
     </row>
     <row r="366">
@@ -6295,14 +6295,14 @@
         <v>0.7294589178356713</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.601963995301239</v>
+        <v>-0.4767533292199327</v>
       </c>
       <c r="D366" t="inlineStr"/>
       <c r="E366" t="n">
         <v>0.7294589178356713</v>
       </c>
       <c r="F366" t="n">
-        <v>0.7852640183847268</v>
+        <v>0.7092399900730784</v>
       </c>
     </row>
     <row r="367">
@@ -6311,14 +6311,14 @@
         <v>0.7314629258517034</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.6180036030452928</v>
+        <v>-0.4661403357651344</v>
       </c>
       <c r="D367" t="inlineStr"/>
       <c r="E367" t="n">
         <v>0.7314629258517034</v>
       </c>
       <c r="F367" t="n">
-        <v>0.7756009347942339</v>
+        <v>0.7036944904487751</v>
       </c>
     </row>
     <row r="368">
@@ -6327,14 +6327,14 @@
         <v>0.7334669338677354</v>
       </c>
       <c r="C368" t="n">
-        <v>-0.6331648160468486</v>
+        <v>-0.4563217009009269</v>
       </c>
       <c r="D368" t="inlineStr"/>
       <c r="E368" t="n">
         <v>0.7334669338677354</v>
       </c>
       <c r="F368" t="n">
-        <v>0.7461941620610384</v>
+        <v>0.6782092116879183</v>
       </c>
     </row>
     <row r="369">
@@ -6343,14 +6343,14 @@
         <v>0.7354709418837675</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.6478733883500343</v>
+        <v>-0.4466646162140183</v>
       </c>
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="n">
         <v>0.7354709418837675</v>
       </c>
       <c r="F369" t="n">
-        <v>0.7011053138517443</v>
+        <v>0.6360648891329712</v>
       </c>
     </row>
     <row r="370">
@@ -6359,14 +6359,14 @@
         <v>0.7374749498997996</v>
       </c>
       <c r="C370" t="n">
-        <v>-0.6623055636578695</v>
+        <v>-0.4365636165767379</v>
       </c>
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="n">
         <v>0.7374749498997996</v>
       </c>
       <c r="F370" t="n">
-        <v>0.6479125042286835</v>
+        <v>0.5844635215608729</v>
       </c>
     </row>
     <row r="371">
@@ -6375,14 +6375,14 @@
         <v>0.7394789579158316</v>
       </c>
       <c r="C371" t="n">
-        <v>-0.6765747880386879</v>
+        <v>-0.4253999640356215</v>
       </c>
       <c r="D371" t="inlineStr"/>
       <c r="E371" t="n">
         <v>0.7394789579158316</v>
       </c>
       <c r="F371" t="n">
-        <v>0.5941903466688827</v>
+        <v>0.5310226651327428</v>
       </c>
     </row>
     <row r="372">
@@ -6391,14 +6391,14 @@
         <v>0.7414829659318637</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.690795816452684</v>
+        <v>-0.4124205092861233</v>
       </c>
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="n">
         <v>0.7414829659318637</v>
       </c>
       <c r="F372" t="n">
-        <v>0.5449188181876308</v>
+        <v>0.4811329809465373</v>
       </c>
     </row>
     <row r="373">
@@ -6407,14 +6407,14 @@
         <v>0.7434869739478958</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.7050697992954162</v>
+        <v>-0.3966134825315754</v>
       </c>
       <c r="D373" t="inlineStr"/>
       <c r="E373" t="n">
         <v>0.7434869739478958</v>
       </c>
       <c r="F373" t="n">
-        <v>0.5019437080658717</v>
+        <v>0.4372698419569144</v>
       </c>
     </row>
     <row r="374">
@@ -6423,14 +6423,14 @@
         <v>0.7454909819639278</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.7194432775201689</v>
+        <v>-0.376667679239422</v>
       </c>
       <c r="D374" t="inlineStr"/>
       <c r="E374" t="n">
         <v>0.7454909819639278</v>
       </c>
       <c r="F374" t="n">
-        <v>0.4649300310943038</v>
+        <v>0.3997253640900333</v>
       </c>
     </row>
     <row r="375">
@@ -6439,14 +6439,14 @@
         <v>0.7474949899799599</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.7338957514911805</v>
+        <v>-0.3510699019029438</v>
       </c>
       <c r="D375" t="inlineStr"/>
       <c r="E375" t="n">
         <v>0.7474949899799599</v>
       </c>
       <c r="F375" t="n">
-        <v>0.4326263042016577</v>
+        <v>0.3676757094270161</v>
       </c>
     </row>
     <row r="376">
@@ -6455,14 +6455,14 @@
         <v>0.749498997995992</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.7483678389581701</v>
+        <v>-0.3184494921864615</v>
       </c>
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="n">
         <v>0.749498997995992</v>
       </c>
       <c r="F376" t="n">
-        <v>0.4036927999001447</v>
+        <v>0.3399384847458261</v>
       </c>
     </row>
     <row r="377">
@@ -6471,14 +6471,14 @@
         <v>0.751503006012024</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.7628055957501221</v>
+        <v>-0.2784142643249833</v>
       </c>
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="n">
         <v>0.751503006012024</v>
       </c>
       <c r="F377" t="n">
-        <v>0.3770099277843965</v>
+        <v>0.3153458632937579</v>
       </c>
     </row>
     <row r="378">
@@ -6487,14 +6487,14 @@
         <v>0.7535070140280561</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.7771916915748112</v>
+        <v>-0.2329522147721242</v>
       </c>
       <c r="D378" t="inlineStr"/>
       <c r="E378" t="n">
         <v>0.7535070140280561</v>
       </c>
       <c r="F378" t="n">
-        <v>0.3517199486348426</v>
+        <v>0.2928947945889668</v>
       </c>
     </row>
     <row r="379">
@@ -6503,14 +6503,14 @@
         <v>0.7555110220440882</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.7915465953116336</v>
+        <v>-0.1877642888380674</v>
       </c>
       <c r="D379" t="inlineStr"/>
       <c r="E379" t="n">
         <v>0.7555110220440882</v>
       </c>
       <c r="F379" t="n">
-        <v>0.3272107288116425</v>
+        <v>0.2717854556620324</v>
       </c>
     </row>
     <row r="380">
@@ -6519,14 +6519,14 @@
         <v>0.7575150300601202</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.8059071074146622</v>
+        <v>-0.1520979006943716</v>
       </c>
       <c r="D380" t="inlineStr"/>
       <c r="E380" t="n">
         <v>0.7575150300601202</v>
       </c>
       <c r="F380" t="n">
-        <v>0.3030972083308348</v>
+        <v>0.2514169109114574</v>
       </c>
     </row>
     <row r="381">
@@ -6535,14 +6535,14 @@
         <v>0.7595190380761523</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.8203068317037195</v>
+        <v>-0.1359486065200076</v>
       </c>
       <c r="D381" t="inlineStr"/>
       <c r="E381" t="n">
         <v>0.7595190380761523</v>
       </c>
       <c r="F381" t="n">
-        <v>0.2791784198613534</v>
+        <v>0.2313801193435934</v>
       </c>
     </row>
     <row r="382">
@@ -6551,14 +6551,14 @@
         <v>0.7615230460921844</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.8347750818359592</v>
+        <v>-0.1454489804840552</v>
       </c>
       <c r="D382" t="inlineStr"/>
       <c r="E382" t="n">
         <v>0.7615230460921844</v>
       </c>
       <c r="F382" t="n">
-        <v>0.2553297016790913</v>
+        <v>0.2114276491152565</v>
       </c>
     </row>
     <row r="383">
@@ -6567,14 +6567,14 @@
         <v>0.7635270541082164</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.8493475302950175</v>
+        <v>-0.1793939379941669</v>
       </c>
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="n">
         <v>0.7635270541082164</v>
       </c>
       <c r="F383" t="n">
-        <v>0.2313864422971955</v>
+        <v>0.1914039367464259</v>
       </c>
     </row>
     <row r="384">
@@ -6583,14 +6583,14 @@
         <v>0.7655310621242485</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.8640706145907266</v>
+        <v>-0.2296538471506205</v>
       </c>
       <c r="D384" t="inlineStr"/>
       <c r="E384" t="n">
         <v>0.7655310621242485</v>
       </c>
       <c r="F384" t="n">
-        <v>0.2070977042546151</v>
+        <v>0.1711342745781469</v>
       </c>
     </row>
     <row r="385">
@@ -6599,14 +6599,14 @@
         <v>0.7675350701402806</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.878997401798967</v>
+        <v>-0.2853113378543443</v>
       </c>
       <c r="D385" t="inlineStr"/>
       <c r="E385" t="n">
         <v>0.7675350701402806</v>
       </c>
       <c r="F385" t="n">
-        <v>0.1821428212610501</v>
+        <v>0.1503299075481628</v>
       </c>
     </row>
     <row r="386">
@@ -6615,14 +6615,14 @@
         <v>0.7695390781563125</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.8941744470809525</v>
+        <v>-0.3374945229017813</v>
       </c>
       <c r="D386" t="inlineStr"/>
       <c r="E386" t="n">
         <v>0.7695390781563125</v>
       </c>
       <c r="F386" t="n">
-        <v>0.15613681506267</v>
+        <v>0.1285872477098386</v>
       </c>
     </row>
     <row r="387">
@@ -6631,14 +6631,14 @@
         <v>0.7715430861723446</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.909617479256732</v>
+        <v>-0.3818693125930643</v>
       </c>
       <c r="D387" t="inlineStr"/>
       <c r="E387" t="n">
         <v>0.7715430861723446</v>
       </c>
       <c r="F387" t="n">
-        <v>0.1285288716034569</v>
+        <v>0.1055032848118467</v>
       </c>
     </row>
     <row r="388">
@@ -6647,14 +6647,14 @@
         <v>0.7735470941883766</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.9252831544820568</v>
+        <v>-0.4181566701405948</v>
       </c>
       <c r="D388" t="inlineStr"/>
       <c r="E388" t="n">
         <v>0.7735470941883766</v>
       </c>
       <c r="F388" t="n">
-        <v>0.09842235308050432</v>
+        <v>0.08080856316806859</v>
       </c>
     </row>
     <row r="389">
@@ -6663,14 +6663,14 @@
         <v>0.7755511022044087</v>
       </c>
       <c r="C389" t="n">
-        <v>-0.9410677976649364</v>
+        <v>-0.4481718326961955</v>
       </c>
       <c r="D389" t="inlineStr"/>
       <c r="E389" t="n">
         <v>0.7755511022044087</v>
       </c>
       <c r="F389" t="n">
-        <v>0.06463949068718777</v>
+        <v>0.05435626598280872</v>
       </c>
     </row>
     <row r="390">
@@ -6679,14 +6679,14 @@
         <v>0.7775551102204408</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.9568500041966388</v>
+        <v>-0.4740913554539842</v>
       </c>
       <c r="D390" t="inlineStr"/>
       <c r="E390" t="n">
         <v>0.7775551102204408</v>
       </c>
       <c r="F390" t="n">
-        <v>0.02646295730189952</v>
+        <v>0.02588261152607894</v>
       </c>
     </row>
     <row r="391">
@@ -6695,14 +6695,14 @@
         <v>0.7795591182364728</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.9725478993858577</v>
+        <v>-0.4976165628517603</v>
       </c>
       <c r="D391" t="inlineStr"/>
       <c r="E391" t="n">
         <v>0.7795591182364728</v>
       </c>
       <c r="F391" t="n">
-        <v>-0.01495822344750564</v>
+        <v>-0.005331168005766764</v>
       </c>
     </row>
     <row r="392">
@@ -6711,14 +6711,14 @@
         <v>0.7815631262525049</v>
       </c>
       <c r="C392" t="n">
-        <v>-0.98814689069572</v>
+        <v>-0.5198150222726827</v>
       </c>
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="n">
         <v>0.7815631262525049</v>
       </c>
       <c r="F392" t="n">
-        <v>-0.05546502384339489</v>
+        <v>-0.04046275175875472</v>
       </c>
     </row>
     <row r="393">
@@ -6727,14 +6727,14 @@
         <v>0.783567134268537</v>
       </c>
       <c r="C393" t="n">
-        <v>-1.003683259202134</v>
+        <v>-0.5412332414524138</v>
       </c>
       <c r="D393" t="inlineStr"/>
       <c r="E393" t="n">
         <v>0.783567134268537</v>
       </c>
       <c r="F393" t="n">
-        <v>-0.08838791841052467</v>
+        <v>-0.0803779446409206</v>
       </c>
     </row>
     <row r="394">
@@ -6743,14 +6743,14 @@
         <v>0.785571142284569</v>
       </c>
       <c r="C394" t="n">
-        <v>-1.019201397435578</v>
+        <v>-0.5620918731525</v>
       </c>
       <c r="D394" t="inlineStr"/>
       <c r="E394" t="n">
         <v>0.785571142284569</v>
       </c>
       <c r="F394" t="n">
-        <v>-0.1071235520779636</v>
+        <v>-0.1241895690326149</v>
       </c>
     </row>
     <row r="395">
@@ -6759,14 +6759,14 @@
         <v>0.7875751503006011</v>
       </c>
       <c r="C395" t="n">
-        <v>-1.034707637599694</v>
+        <v>-0.5824815468278369</v>
       </c>
       <c r="D395" t="inlineStr"/>
       <c r="E395" t="n">
         <v>0.7875751503006011</v>
       </c>
       <c r="F395" t="n">
-        <v>-0.1083524443723252</v>
+        <v>-0.1681291385118967</v>
       </c>
     </row>
     <row r="396">
@@ -6775,14 +6775,14 @@
         <v>0.7895791583166332</v>
       </c>
       <c r="C396" t="n">
-        <v>-1.050134542996449</v>
+        <v>-0.6025086924652971</v>
       </c>
       <c r="D396" t="inlineStr"/>
       <c r="E396" t="n">
         <v>0.7895791583166332</v>
       </c>
       <c r="F396" t="n">
-        <v>-0.0935761251197092</v>
+        <v>-0.2060326431662337</v>
       </c>
     </row>
     <row r="397">
@@ -6791,14 +6791,14 @@
         <v>0.7915831663326652</v>
       </c>
       <c r="C397" t="n">
-        <v>-1.065330042072634</v>
+        <v>-0.6223406383748834</v>
       </c>
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="n">
         <v>0.7915831663326652</v>
       </c>
       <c r="F397" t="n">
-        <v>-0.067916899464943</v>
+        <v>-0.2317644568681277</v>
       </c>
     </row>
     <row r="398">
@@ -6807,14 +6807,14 @@
         <v>0.7935871743486973</v>
       </c>
       <c r="C398" t="n">
-        <v>-1.080095131634291</v>
+        <v>-0.6421350103122527</v>
       </c>
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="n">
         <v>0.7935871743486973</v>
       </c>
       <c r="F398" t="n">
-        <v>-0.03731822484131458</v>
+        <v>-0.2421895828830486</v>
       </c>
     </row>
     <row r="399">
@@ -6823,14 +6823,14 @@
         <v>0.7955911823647294</v>
       </c>
       <c r="C399" t="n">
-        <v>-1.094278308866755</v>
+        <v>-0.6619286914812591</v>
       </c>
       <c r="D399" t="inlineStr"/>
       <c r="E399" t="n">
         <v>0.7955911823647294</v>
       </c>
       <c r="F399" t="n">
-        <v>-0.006215393233192283</v>
+        <v>-0.2385772532584569</v>
       </c>
     </row>
     <row r="400">
@@ -6839,14 +6839,14 @@
         <v>0.7975951903807614</v>
       </c>
       <c r="C400" t="n">
-        <v>-1.107912972838159</v>
+        <v>-0.6815777499686737</v>
       </c>
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="n">
         <v>0.7975951903807614</v>
       </c>
       <c r="F400" t="n">
-        <v>0.02318969936945385</v>
+        <v>-0.2255047532095394</v>
       </c>
     </row>
     <row r="401">
@@ -6855,14 +6855,14 @@
         <v>0.7995991983967935</v>
       </c>
       <c r="C401" t="n">
-        <v>-1.121324830823344</v>
+        <v>-0.7007660814553109</v>
       </c>
       <c r="D401" t="inlineStr"/>
       <c r="E401" t="n">
         <v>0.7995991983967935</v>
       </c>
       <c r="F401" t="n">
-        <v>0.05036911392359983</v>
+        <v>-0.2083034433115449</v>
       </c>
     </row>
     <row r="402">
@@ -6871,14 +6871,14 @@
         <v>0.8016032064128256</v>
       </c>
       <c r="C402" t="n">
-        <v>-1.135128860061773</v>
+        <v>-0.7190395886169865</v>
       </c>
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="n">
         <v>0.8016032064128256</v>
       </c>
       <c r="F402" t="n">
-        <v>0.07557830575872923</v>
+        <v>-0.1909019186159471</v>
       </c>
     </row>
     <row r="403">
@@ -6887,14 +6887,14 @@
         <v>0.8036072144288576</v>
       </c>
       <c r="C403" t="n">
-        <v>-1.150039907377177</v>
+        <v>-0.7358560340486252</v>
       </c>
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="n">
         <v>0.8036072144288576</v>
       </c>
       <c r="F403" t="n">
-        <v>0.0992874094249388</v>
+        <v>-0.1751058689506226</v>
       </c>
     </row>
     <row r="404">
@@ -6903,14 +6903,14 @@
         <v>0.8056112224448897</v>
       </c>
       <c r="C404" t="n">
-        <v>-1.166474324617581</v>
+        <v>-0.7506909885165368</v>
       </c>
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="n">
         <v>0.8056112224448897</v>
       </c>
       <c r="F404" t="n">
-        <v>0.1220221739766368</v>
+        <v>-0.1610753361630472</v>
       </c>
     </row>
     <row r="405">
@@ -6919,14 +6919,14 @@
         <v>0.8076152304609218</v>
       </c>
       <c r="C405" t="n">
-        <v>-1.184060296171973</v>
+        <v>-0.7632174496257687</v>
       </c>
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="n">
         <v>0.8076152304609218</v>
       </c>
       <c r="F405" t="n">
-        <v>0.1443683851312383</v>
+        <v>-0.1481844268258328</v>
       </c>
     </row>
     <row r="406">
@@ -6935,14 +6935,14 @@
         <v>0.8096192384769538</v>
       </c>
       <c r="C406" t="n">
-        <v>-1.201344705003361</v>
+        <v>-0.7734881996250289</v>
       </c>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="n">
         <v>0.8096192384769538</v>
       </c>
       <c r="F406" t="n">
-        <v>0.1668882204193872</v>
+        <v>-0.1356774503551277</v>
       </c>
     </row>
     <row r="407">
@@ -6951,14 +6951,14 @@
         <v>0.8116232464929859</v>
       </c>
       <c r="C407" t="n">
-        <v>-1.216026957183768</v>
+        <v>-0.78200864828302</v>
       </c>
       <c r="D407" t="inlineStr"/>
       <c r="E407" t="n">
         <v>0.8116232464929859</v>
       </c>
       <c r="F407" t="n">
-        <v>0.1898302700648672</v>
+        <v>-0.1229773192671922</v>
       </c>
     </row>
     <row r="408">
@@ -6967,14 +6967,14 @@
         <v>0.813627254509018</v>
       </c>
       <c r="C408" t="n">
-        <v>-1.225787831822357</v>
+        <v>-0.7896438121529283</v>
       </c>
       <c r="D408" t="inlineStr"/>
       <c r="E408" t="n">
         <v>0.813627254509018</v>
       </c>
       <c r="F408" t="n">
-        <v>0.2127510644365964</v>
+        <v>-0.109764039618638</v>
       </c>
     </row>
     <row r="409">
@@ -6983,14 +6983,14 @@
         <v>0.81563126252505</v>
       </c>
       <c r="C409" t="n">
-        <v>-1.229316694154458</v>
+        <v>-0.7974136972268602</v>
       </c>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="n">
         <v>0.81563126252505</v>
       </c>
       <c r="F409" t="n">
-        <v>0.2343514377581548</v>
+        <v>-0.09594897062294495</v>
       </c>
     </row>
     <row r="410">
@@ -6999,14 +6999,14 @@
         <v>0.8176352705410821</v>
       </c>
       <c r="C410" t="n">
-        <v>-1.226873860167772</v>
+        <v>-0.806274286946827</v>
       </c>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="n">
         <v>0.8176352705410821</v>
       </c>
       <c r="F410" t="n">
-        <v>0.2527788939556124</v>
+        <v>-0.08161204833405578</v>
       </c>
     </row>
     <row r="411">
@@ -7015,14 +7015,14 @@
         <v>0.8196392785571142</v>
       </c>
       <c r="C411" t="n">
-        <v>-1.219999120816294</v>
+        <v>-0.8169520458159468</v>
       </c>
       <c r="D411" t="inlineStr"/>
       <c r="E411" t="n">
         <v>0.8196392785571142</v>
       </c>
       <c r="F411" t="n">
-        <v>0.2663625630827975</v>
+        <v>-0.06690882472725754</v>
       </c>
     </row>
     <row r="412">
@@ -7031,14 +7031,14 @@
         <v>0.8216432865731462</v>
       </c>
       <c r="C412" t="n">
-        <v>-1.210616217976873</v>
+        <v>-0.8298382566741814</v>
       </c>
       <c r="D412" t="inlineStr"/>
       <c r="E412" t="n">
         <v>0.8216432865731462</v>
       </c>
       <c r="F412" t="n">
-        <v>0.2743724654134709</v>
+        <v>-0.05196776402505186</v>
       </c>
     </row>
     <row r="413">
@@ -7047,14 +7047,14 @@
         <v>0.8236472945891783</v>
       </c>
       <c r="C413" t="n">
-        <v>-1.200179619593497</v>
+        <v>-0.8449348476680243</v>
       </c>
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="n">
         <v>0.8236472945891783</v>
       </c>
       <c r="F413" t="n">
-        <v>0.2773159124505738</v>
+        <v>-0.03686836386363774</v>
       </c>
     </row>
     <row r="414">
@@ -7063,14 +7063,14 @@
         <v>0.8256513026052104</v>
       </c>
       <c r="C414" t="n">
-        <v>-1.189337579179083</v>
+        <v>-0.8618656264915603</v>
       </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="n">
         <v>0.8256513026052104</v>
       </c>
       <c r="F414" t="n">
-        <v>0.276634380116309</v>
+        <v>-0.0217407060794995</v>
       </c>
     </row>
     <row r="415">
@@ -7079,14 +7079,14 @@
         <v>0.8276553106212424</v>
       </c>
       <c r="C415" t="n">
-        <v>-1.178116141423475</v>
+        <v>-0.8799733004542458</v>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="n">
         <v>0.8276553106212424</v>
       </c>
       <c r="F415" t="n">
-        <v>0.2741293426282491</v>
+        <v>-0.006908958164390663</v>
       </c>
     </row>
     <row r="416">
@@ -7095,14 +7095,14 @@
         <v>0.8296593186372745</v>
       </c>
       <c r="C416" t="n">
-        <v>-1.166308951493295</v>
+        <v>-0.8984875947486989</v>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="n">
         <v>0.8296593186372745</v>
       </c>
       <c r="F416" t="n">
-        <v>0.2715648394191242</v>
+        <v>0.007059315763391727</v>
       </c>
     </row>
     <row r="417">
@@ -7111,14 +7111,14 @@
         <v>0.8316633266533066</v>
       </c>
       <c r="C417" t="n">
-        <v>-1.153782669562071</v>
+        <v>-0.916702991095028</v>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="n">
         <v>0.8316633266533066</v>
       </c>
       <c r="F417" t="n">
-        <v>0.2705862621998015</v>
+        <v>0.0194579339103541</v>
       </c>
     </row>
     <row r="418">
@@ -7127,14 +7127,14 @@
         <v>0.8336673346693386</v>
       </c>
       <c r="C418" t="n">
-        <v>-1.1405928249949</v>
+        <v>-0.9341163433473829</v>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="n">
         <v>0.8336673346693386</v>
       </c>
       <c r="F418" t="n">
-        <v>0.2727309449072249</v>
+        <v>0.02963770173772181</v>
       </c>
     </row>
     <row r="419">
@@ -7143,14 +7143,14 @@
         <v>0.8356713426853707</v>
       </c>
       <c r="C419" t="n">
-        <v>-1.126959538840083</v>
+        <v>-0.9504956629156245</v>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="n">
         <v>0.8356713426853707</v>
       </c>
       <c r="F419" t="n">
-        <v>0.2792578903234184</v>
+        <v>0.03717662404869854</v>
       </c>
     </row>
     <row r="420">
@@ -7159,14 +7159,14 @@
         <v>0.8376753507014028</v>
       </c>
       <c r="C420" t="n">
-        <v>-1.113186796353929</v>
+        <v>-0.9658821837404854</v>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="n">
         <v>0.8376753507014028</v>
       </c>
       <c r="F420" t="n">
-        <v>0.2908097330686011</v>
+        <v>0.04195859836451514</v>
       </c>
     </row>
     <row r="421">
@@ -7175,14 +7175,14 @@
         <v>0.8396793587174348</v>
       </c>
       <c r="C421" t="n">
-        <v>-1.099564420204128</v>
+        <v>-0.9805335921567823</v>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="n">
         <v>0.8396793587174348</v>
       </c>
       <c r="F421" t="n">
-        <v>0.3071853398927526</v>
+        <v>0.0441642282068993</v>
       </c>
     </row>
     <row r="422">
@@ -7191,14 +7191,14 @@
         <v>0.8416833667334669</v>
       </c>
       <c r="C422" t="n">
-        <v>-1.086280403158352</v>
+        <v>-0.9948296926637149</v>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="n">
         <v>0.8416833667334669</v>
       </c>
       <c r="F422" t="n">
-        <v>0.3274745612732209</v>
+        <v>0.04420702581090573</v>
       </c>
     </row>
     <row r="423">
@@ -7207,14 +7207,14 @@
         <v>0.843687374749499</v>
       </c>
       <c r="C423" t="n">
-        <v>-1.07334859364556</v>
+        <v>-1.009166307454554</v>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="n">
         <v>0.843687374749499</v>
       </c>
       <c r="F423" t="n">
-        <v>0.3505021716998126</v>
+        <v>0.04263386867671767</v>
       </c>
     </row>
     <row r="424">
@@ -7223,14 +7223,14 @@
         <v>0.845691382765531</v>
       </c>
       <c r="C424" t="n">
-        <v>-1.060582765104086</v>
+        <v>-1.023852831056727</v>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="n">
         <v>0.845691382765531</v>
       </c>
       <c r="F424" t="n">
-        <v>0.3752741047034861</v>
+        <v>0.04001420595516057</v>
       </c>
     </row>
     <row r="425">
@@ -7239,14 +7239,14 @@
         <v>0.8476953907815631</v>
       </c>
       <c r="C425" t="n">
-        <v>-1.047648355409254</v>
+        <v>-1.039029632751192</v>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="n">
         <v>0.8476953907815631</v>
       </c>
       <c r="F425" t="n">
-        <v>0.4011518125018638</v>
+        <v>0.036863966499659</v>
       </c>
     </row>
     <row r="426">
@@ -7255,14 +7255,14 @@
         <v>0.8496993987975952</v>
       </c>
       <c r="C426" t="n">
-        <v>-1.034187359512958</v>
+        <v>-1.054628421247227</v>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="n">
         <v>0.8496993987975952</v>
       </c>
       <c r="F426" t="n">
-        <v>0.4277330347377202</v>
+        <v>0.0336444966678294</v>
       </c>
     </row>
     <row r="427">
@@ -7271,14 +7271,14 @@
         <v>0.8517034068136272</v>
       </c>
       <c r="C427" t="n">
-        <v>-1.019970738620018</v>
+        <v>-1.07038511838469</v>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="n">
         <v>0.8517034068136272</v>
       </c>
       <c r="F427" t="n">
-        <v>0.4546399602113906</v>
+        <v>0.03082519608981907</v>
       </c>
     </row>
     <row r="428">
@@ -7287,14 +7287,14 @@
         <v>0.8537074148296593</v>
       </c>
       <c r="C428" t="n">
-        <v>-1.005002072166911</v>
+        <v>-1.085889829571695</v>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="n">
         <v>0.8537074148296593</v>
       </c>
       <c r="F428" t="n">
-        <v>0.481415678933186</v>
+        <v>0.02893579444045564</v>
       </c>
     </row>
     <row r="429">
@@ -7303,14 +7303,14 @@
         <v>0.8557114228456913</v>
       </c>
       <c r="C429" t="n">
-        <v>-0.9895111143703479</v>
+        <v>-1.100658984578386</v>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="n">
         <v>0.8557114228456913</v>
       </c>
       <c r="F429" t="n">
-        <v>0.507585548228615</v>
+        <v>0.02854277442994349</v>
       </c>
     </row>
     <row r="430">
@@ -7319,14 +7319,14 @@
         <v>0.8577154308617234</v>
       </c>
       <c r="C430" t="n">
-        <v>-0.9738373907861553</v>
+        <v>-1.11423817444812</v>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="n">
         <v>0.8577154308617234</v>
       </c>
       <c r="F430" t="n">
-        <v>0.5327881447484835</v>
+        <v>0.03015300865845939</v>
       </c>
     </row>
     <row r="431">
@@ -7335,14 +7335,14 @@
         <v>0.8597194388777555</v>
       </c>
       <c r="C431" t="n">
-        <v>-0.9582808147782538</v>
+        <v>-1.126348494628773</v>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="n">
         <v>0.8597194388777555</v>
       </c>
       <c r="F431" t="n">
-        <v>0.5568416287258925</v>
+        <v>0.03412142924048728</v>
       </c>
     </row>
     <row r="432">
@@ -7351,14 +7351,14 @@
         <v>0.8617234468937875</v>
       </c>
       <c r="C432" t="n">
-        <v>-0.9430132523503088</v>
+        <v>-1.137031642196064</v>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="n">
         <v>0.8617234468937875</v>
       </c>
       <c r="F432" t="n">
-        <v>0.5796833770570178</v>
+        <v>0.04062562410721362</v>
       </c>
     </row>
     <row r="433">
@@ -7367,14 +7367,14 @@
         <v>0.8637274549098196</v>
       </c>
       <c r="C433" t="n">
-        <v>-0.9280808549700376</v>
+        <v>-1.146698398970958</v>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="n">
         <v>0.8637274549098196</v>
       </c>
       <c r="F433" t="n">
-        <v>0.6012510477226845</v>
+        <v>0.04968931989890033</v>
       </c>
     </row>
     <row r="434">
@@ -7383,14 +7383,14 @@
         <v>0.8657314629258517</v>
       </c>
       <c r="C434" t="n">
-        <v>-0.9134450853641203</v>
+        <v>-1.156021921017776</v>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="n">
         <v>0.8657314629258517</v>
       </c>
       <c r="F434" t="n">
-        <v>0.6214332290185842</v>
+        <v>0.06119755685380082</v>
       </c>
     </row>
     <row r="435">
@@ -7399,14 +7399,14 @@
         <v>0.8677354709418837</v>
       </c>
       <c r="C435" t="n">
-        <v>-0.8989971660106453</v>
+        <v>-1.165708280398768</v>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="n">
         <v>0.8677354709418837</v>
       </c>
       <c r="F435" t="n">
-        <v>0.6401480458174538</v>
+        <v>0.07488382716671538</v>
       </c>
     </row>
     <row r="436">
@@ -7415,14 +7415,14 @@
         <v>0.8697394789579158</v>
       </c>
       <c r="C436" t="n">
-        <v>-0.8845387272882881</v>
+        <v>-1.17625234018268</v>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="n">
         <v>0.8697394789579158</v>
       </c>
       <c r="F436" t="n">
-        <v>0.6574785195418293</v>
+        <v>0.09033337971001512</v>
       </c>
     </row>
     <row r="437">
@@ -7431,14 +7431,14 @@
         <v>0.8717434869739479</v>
       </c>
       <c r="C437" t="n">
-        <v>-0.8697859835145613</v>
+        <v>-1.187751287657429</v>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="n">
         <v>0.8717434869739479</v>
       </c>
       <c r="F437" t="n">
-        <v>0.6737368788737813</v>
+        <v>0.1070509180076172</v>
       </c>
     </row>
     <row r="438">
@@ -7447,14 +7447,14 @@
         <v>0.8737474949899798</v>
       </c>
       <c r="C438" t="n">
-        <v>-0.8544396032439829</v>
+        <v>-1.199763034978407</v>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="n">
         <v>0.8737474949899798</v>
       </c>
       <c r="F438" t="n">
-        <v>0.6893862633071172</v>
+        <v>0.1245779922646122</v>
       </c>
     </row>
     <row r="439">
@@ -7463,14 +7463,14 @@
         <v>0.8757515030060119</v>
       </c>
       <c r="C439" t="n">
-        <v>-0.8382956370652881</v>
+        <v>-1.211174429878322</v>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="n">
         <v>0.8757515030060119</v>
       </c>
       <c r="F439" t="n">
-        <v>0.7048498544124021</v>
+        <v>0.1425884890830278</v>
       </c>
     </row>
     <row r="440">
@@ -7479,14 +7479,14 @@
         <v>0.877755511022044</v>
       </c>
       <c r="C440" t="n">
-        <v>-0.8213106546688906</v>
+        <v>-1.220168018222781</v>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="n">
         <v>0.877755511022044</v>
       </c>
       <c r="F440" t="n">
-        <v>0.7203255060841596</v>
+        <v>0.1609037681982693</v>
       </c>
     </row>
     <row r="441">
@@ -7495,14 +7495,14 @@
         <v>0.879759519038076</v>
       </c>
       <c r="C441" t="n">
-        <v>-0.8035670001736717</v>
+        <v>-1.224494004113239</v>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="n">
         <v>0.879759519038076</v>
       </c>
       <c r="F441" t="n">
-        <v>0.7357246630897144</v>
+        <v>0.1794359242408452</v>
       </c>
     </row>
     <row r="442">
@@ -7511,14 +7511,14 @@
         <v>0.8817635270541081</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.785188234807243</v>
+        <v>-1.222159915108061</v>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="n">
         <v>0.8817635270541081</v>
       </c>
       <c r="F442" t="n">
-        <v>0.7507921348717047</v>
+        <v>0.1981317584576368</v>
       </c>
     </row>
     <row r="443">
@@ -7527,14 +7527,14 @@
         <v>0.8837675350701402</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.7662921733926586</v>
+        <v>-1.2122910366016</v>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="n">
         <v>0.8837675350701402</v>
       </c>
       <c r="F443" t="n">
-        <v>0.7653297255395342</v>
+        <v>0.2169812825442416</v>
       </c>
     </row>
     <row r="444">
@@ -7543,14 +7543,14 @@
         <v>0.8857715430861722</v>
       </c>
       <c r="C444" t="n">
-        <v>-0.7470192397819927</v>
+        <v>-1.195627318717282</v>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="n">
         <v>0.8857715430861722</v>
       </c>
       <c r="F444" t="n">
-        <v>0.7793720955386947</v>
+        <v>0.2360839376898757</v>
       </c>
     </row>
     <row r="445">
@@ -7559,14 +7559,14 @@
         <v>0.8877755511022043</v>
       </c>
       <c r="C445" t="n">
-        <v>-0.7275787586071845</v>
+        <v>-1.174279424499785</v>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="n">
         <v>0.8877755511022043</v>
       </c>
       <c r="F445" t="n">
-        <v>0.7932062245673099</v>
+        <v>0.2556767251430174</v>
       </c>
     </row>
     <row r="446">
@@ -7575,14 +7575,14 @@
         <v>0.8897795591182364</v>
       </c>
       <c r="C446" t="n">
-        <v>-0.708237292548663</v>
+        <v>-1.150866009693047</v>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="n">
         <v>0.8897795591182364</v>
       </c>
       <c r="F446" t="n">
-        <v>0.80725698494168</v>
+        <v>0.2760378858738889</v>
       </c>
     </row>
     <row r="447">
@@ -7591,14 +7591,14 @@
         <v>0.8917835671342684</v>
       </c>
       <c r="C447" t="n">
-        <v>-0.6892480983074721</v>
+        <v>-1.12755479819534</v>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="n">
         <v>0.8917835671342684</v>
       </c>
       <c r="F447" t="n">
-        <v>0.8219596201400267</v>
+        <v>0.2973063520041122</v>
       </c>
     </row>
     <row r="448">
@@ -7607,14 +7607,14 @@
         <v>0.8937875751503005</v>
       </c>
       <c r="C448" t="n">
-        <v>-0.6707778634920767</v>
+        <v>-1.10549468220793</v>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="n">
         <v>0.8937875751503005</v>
       </c>
       <c r="F448" t="n">
-        <v>0.8377065538326137</v>
+        <v>0.3193826465922662</v>
       </c>
     </row>
     <row r="449">
@@ -7623,14 +7623,14 @@
         <v>0.8957915831663326</v>
       </c>
       <c r="C449" t="n">
-        <v>-0.6528726225802994</v>
+        <v>-1.0847922196111</v>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="n">
         <v>0.8957915831663326</v>
       </c>
       <c r="F449" t="n">
-        <v>0.8548468829705002</v>
+        <v>0.3420156236452391</v>
       </c>
     </row>
     <row r="450">
@@ -7639,14 +7639,14 @@
         <v>0.8977955911823646</v>
       </c>
       <c r="C450" t="n">
-        <v>-0.6354488123544948</v>
+        <v>-1.064888118198489</v>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="n">
         <v>0.8977955911823646</v>
       </c>
       <c r="F450" t="n">
-        <v>0.8736673271488105</v>
+        <v>0.3649838940883675</v>
       </c>
     </row>
     <row r="451">
@@ -7655,14 +7655,14 @@
         <v>0.8997995991983967</v>
       </c>
       <c r="C451" t="n">
-        <v>-0.6182903914688694</v>
+        <v>-1.045069885762044</v>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="n">
         <v>0.8997995991983967</v>
       </c>
       <c r="F451" t="n">
-        <v>0.8943236822454317</v>
+        <v>0.3881721718162466</v>
       </c>
     </row>
     <row r="452">
@@ -7671,14 +7671,14 @@
         <v>0.9018036072144288</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.6010838665963788</v>
+        <v>-1.024890639014181</v>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="n">
         <v>0.9018036072144288</v>
       </c>
       <c r="F452" t="n">
-        <v>0.9167854667642417</v>
+        <v>0.4114571327452626</v>
       </c>
     </row>
     <row r="453">
@@ -7687,14 +7687,14 @@
         <v>0.9038076152304608</v>
       </c>
       <c r="C453" t="n">
-        <v>-0.5835418770767229</v>
+        <v>-1.004349902294921</v>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="n">
         <v>0.9038076152304608</v>
       </c>
       <c r="F453" t="n">
-        <v>0.9408709408863358</v>
+        <v>0.434523025678047</v>
       </c>
     </row>
     <row r="454">
@@ -7703,14 +7703,14 @@
         <v>0.9058116232464929</v>
       </c>
       <c r="C454" t="n">
-        <v>-0.5655805393057348</v>
+        <v>-0.9838164925406809</v>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="n">
         <v>0.9058116232464929</v>
       </c>
       <c r="F454" t="n">
-        <v>0.9663687082100743</v>
+        <v>0.4567953926523127</v>
       </c>
     </row>
     <row r="455">
@@ -7719,14 +7719,14 @@
         <v>0.907815631262525</v>
       </c>
       <c r="C455" t="n">
-        <v>-0.5474267574060484</v>
+        <v>-0.9637868122744956</v>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="n">
         <v>0.907815631262525</v>
       </c>
       <c r="F455" t="n">
-        <v>0.9931451466838583</v>
+        <v>0.4775549093819641</v>
       </c>
     </row>
     <row r="456">
@@ -7735,14 +7735,14 @@
         <v>0.909819639278557</v>
       </c>
       <c r="C456" t="n">
-        <v>-0.5295322795673894</v>
+        <v>-0.9446467865250463</v>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="n">
         <v>0.909819639278557</v>
       </c>
       <c r="F456" t="n">
-        <v>1.021144204528371</v>
+        <v>0.4961433542022947</v>
       </c>
     </row>
     <row r="457">
@@ -7751,14 +7751,14 @@
         <v>0.9118236472945891</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.5123133117491491</v>
+        <v>-0.926565831833947</v>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="n">
         <v>0.9118236472945891</v>
       </c>
       <c r="F457" t="n">
-        <v>1.050264568743132</v>
+        <v>0.512135857304159</v>
       </c>
     </row>
     <row r="458">
@@ -7767,14 +7767,14 @@
         <v>0.9138276553106212</v>
       </c>
       <c r="C458" t="n">
-        <v>-0.4958780784685572</v>
+        <v>-0.9095493370901824</v>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="n">
         <v>0.9138276553106212</v>
       </c>
       <c r="F458" t="n">
-        <v>1.080216452570531</v>
+        <v>0.5254256753263815</v>
       </c>
     </row>
     <row r="459">
@@ -7783,14 +7783,14 @@
         <v>0.9158316633266532</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.4799118241691884</v>
+        <v>-0.8935539878883352</v>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="n">
         <v>0.9158316633266532</v>
       </c>
       <c r="F459" t="n">
-        <v>1.110504704203723</v>
+        <v>0.5362385659471839</v>
       </c>
     </row>
     <row r="460">
@@ -7799,14 +7799,14 @@
         <v>0.9178356713426853</v>
       </c>
       <c r="C460" t="n">
-        <v>-0.4637664234767449</v>
+        <v>-0.8785503117530411</v>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="n">
         <v>0.9178356713426853</v>
       </c>
       <c r="F460" t="n">
-        <v>1.140607046265307</v>
+        <v>0.5450812717476535</v>
       </c>
     </row>
     <row r="461">
@@ -7815,14 +7815,14 @@
         <v>0.9198396793587174</v>
       </c>
       <c r="C461" t="n">
-        <v>-0.4466701613709615</v>
+        <v>-0.8644916100696168</v>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="n">
         <v>0.9198396793587174</v>
       </c>
       <c r="F461" t="n">
-        <v>1.170254244588602</v>
+        <v>0.5526054027515328</v>
       </c>
     </row>
     <row r="462">
@@ -7831,14 +7831,14 @@
         <v>0.9218436873747494</v>
       </c>
       <c r="C462" t="n">
-        <v>-0.4279393890557603</v>
+        <v>-0.8512433902101713</v>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="n">
         <v>0.9218436873747494</v>
       </c>
       <c r="F462" t="n">
-        <v>1.199492914981879</v>
+        <v>0.559428143216001</v>
       </c>
     </row>
     <row r="463">
@@ -7847,14 +7847,14 @@
         <v>0.9238476953907815</v>
       </c>
       <c r="C463" t="n">
-        <v>-0.4071263138691011</v>
+        <v>-0.8385410474834132</v>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="n">
         <v>0.9238476953907815</v>
       </c>
       <c r="F463" t="n">
-        <v>1.22821588729466</v>
+        <v>0.5660215404345159</v>
       </c>
     </row>
     <row r="464">
@@ -7863,14 +7863,14 @@
         <v>0.9258517034068136</v>
       </c>
       <c r="C464" t="n">
-        <v>-0.3841053759772392</v>
+        <v>-0.8260017641950321</v>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="n">
         <v>0.9258517034068136</v>
       </c>
       <c r="F464" t="n">
-        <v>1.255270119027674</v>
+        <v>0.5727555104422666</v>
       </c>
     </row>
     <row r="465">
@@ -7879,14 +7879,14 @@
         <v>0.9278557114228456</v>
       </c>
       <c r="C465" t="n">
-        <v>-0.3591093930455638</v>
+        <v>-0.8131685265710977</v>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="n">
         <v>0.9278557114228456</v>
       </c>
       <c r="F465" t="n">
-        <v>1.277870904700326</v>
+        <v>0.5800373426940804</v>
       </c>
     </row>
     <row r="466">
@@ -7895,14 +7895,14 @@
         <v>0.9298597194388777</v>
       </c>
       <c r="C466" t="n">
-        <v>-0.3327097815829992</v>
+        <v>-0.79955006026709</v>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="n">
         <v>0.9298597194388777</v>
       </c>
       <c r="F466" t="n">
-        <v>1.292186798400187</v>
+        <v>0.5883899582311569</v>
       </c>
     </row>
     <row r="467">
@@ -7911,14 +7911,14 @@
         <v>0.9318637274549098</v>
       </c>
       <c r="C467" t="n">
-        <v>-0.3057323933779421</v>
+        <v>-0.7846450452580677</v>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="n">
         <v>0.9318637274549098</v>
       </c>
       <c r="F467" t="n">
-        <v>1.295140880540627</v>
+        <v>0.5983561794310563</v>
       </c>
     </row>
     <row r="468">
@@ -7927,14 +7927,14 @@
         <v>0.9338677354709418</v>
       </c>
       <c r="C468" t="n">
-        <v>-0.2791087294685269</v>
+        <v>-0.7679603799742232</v>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="n">
         <v>0.9338677354709418</v>
       </c>
       <c r="F468" t="n">
-        <v>1.286237945062506</v>
+        <v>0.6102781066089554</v>
       </c>
     </row>
     <row r="469">
@@ -7943,14 +7943,14 @@
         <v>0.9358717434869739</v>
       </c>
       <c r="C469" t="n">
-        <v>-0.2537082073122014</v>
+        <v>-0.7490523809770568</v>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="n">
         <v>0.9358717434869739</v>
       </c>
       <c r="F469" t="n">
-        <v>1.267938221814946</v>
+        <v>0.624114910309774</v>
       </c>
     </row>
     <row r="470">
@@ -7959,14 +7959,14 @@
         <v>0.9378757515030059</v>
       </c>
       <c r="C470" t="n">
-        <v>-0.2302157917870941</v>
+        <v>-0.7276104158591422</v>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="n">
         <v>0.9378757515030059</v>
       </c>
       <c r="F470" t="n">
-        <v>1.244247730142128</v>
+        <v>0.6394469266972911</v>
       </c>
     </row>
     <row r="471">
@@ -7975,14 +7975,14 @@
         <v>0.939879759519038</v>
       </c>
       <c r="C471" t="n">
-        <v>-0.2091232328994824</v>
+        <v>-0.703559372176607</v>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="n">
         <v>0.939879759519038</v>
       </c>
       <c r="F471" t="n">
-        <v>1.218663508462835</v>
+        <v>0.6556757740937208</v>
       </c>
     </row>
     <row r="472">
@@ -7991,14 +7991,14 @@
         <v>0.9418837675350701</v>
       </c>
       <c r="C472" t="n">
-        <v>-0.1908782418457263</v>
+        <v>-0.6771051673971296</v>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="n">
         <v>0.9418837675350701</v>
       </c>
       <c r="F472" t="n">
-        <v>1.193004511836269</v>
+        <v>0.6722973055409502</v>
       </c>
     </row>
     <row r="473">
@@ -8007,14 +8007,14 @@
         <v>0.9438877755511021</v>
       </c>
       <c r="C473" t="n">
-        <v>-0.1761477898373512</v>
+        <v>-0.6486590894366623</v>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="n">
         <v>0.9438877755511021</v>
       </c>
       <c r="F473" t="n">
-        <v>1.167751484322543</v>
+        <v>0.689076758298816</v>
       </c>
     </row>
     <row r="474">
@@ -8023,14 +8023,14 @@
         <v>0.9458917835671342</v>
       </c>
       <c r="C474" t="n">
-        <v>-0.1660078364275779</v>
+        <v>-0.6186614347111296</v>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="n">
         <v>0.9458917835671342</v>
       </c>
       <c r="F474" t="n">
-        <v>1.143347330070127</v>
+        <v>0.7060434333240215</v>
       </c>
     </row>
     <row r="475">
@@ -8039,14 +8039,14 @@
         <v>0.9478957915831663</v>
       </c>
       <c r="C475" t="n">
-        <v>-0.1617956282635236</v>
+        <v>-0.5874430053683224</v>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="n">
         <v>0.9478957915831663</v>
       </c>
       <c r="F475" t="n">
-        <v>1.121313313365218</v>
+        <v>0.7233646331359732</v>
       </c>
     </row>
     <row r="476">
@@ -8055,14 +8055,14 @@
         <v>0.9498997995991983</v>
       </c>
       <c r="C476" t="n">
-        <v>-0.1645551902722575</v>
+        <v>-0.5553220276090265</v>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="n">
         <v>0.9498997995991983</v>
       </c>
       <c r="F476" t="n">
-        <v>1.104251633756785</v>
+        <v>0.741226425324877</v>
       </c>
     </row>
     <row r="477">
@@ -8071,14 +8071,14 @@
         <v>0.9519038076152304</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.1743880416428549</v>
+        <v>-0.5229938142042547</v>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="n">
         <v>0.9519038076152304</v>
       </c>
       <c r="F477" t="n">
-        <v>1.094645261735133</v>
+        <v>0.7598035966466045</v>
       </c>
     </row>
     <row r="478">
@@ -8087,14 +8087,14 @@
         <v>0.9539078156312625</v>
       </c>
       <c r="C478" t="n">
-        <v>-0.1902129185598967</v>
+        <v>-0.4919619752741944</v>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="n">
         <v>0.9539078156312625</v>
       </c>
       <c r="F478" t="n">
-        <v>1.093359943038291</v>
+        <v>0.7793005799365244</v>
       </c>
     </row>
     <row r="479">
@@ -8103,14 +8103,14 @@
         <v>0.9559118236472945</v>
       </c>
       <c r="C479" t="n">
-        <v>-0.21015994156199</v>
+        <v>-0.4645235882469075</v>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="n">
         <v>0.9559118236472945</v>
       </c>
       <c r="F479" t="n">
-        <v>1.099042466691218</v>
+        <v>0.7999939801785056</v>
       </c>
     </row>
     <row r="480">
@@ -8119,14 +8119,14 @@
         <v>0.9579158316633266</v>
       </c>
       <c r="C480" t="n">
-        <v>-0.2322116528717657</v>
+        <v>-0.443007541812119</v>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="n">
         <v>0.9579158316633266</v>
       </c>
       <c r="F480" t="n">
-        <v>1.108870376446674</v>
+        <v>0.8222313534288517</v>
       </c>
     </row>
     <row r="481">
@@ -8135,14 +8135,14 @@
         <v>0.9599198396793587</v>
       </c>
       <c r="C481" t="n">
-        <v>-0.254460526177951</v>
+        <v>-0.4285803940184328</v>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="n">
         <v>0.9599198396793587</v>
       </c>
       <c r="F481" t="n">
-        <v>1.119999475045832</v>
+        <v>0.8463954443989891</v>
       </c>
     </row>
     <row r="482">
@@ -8151,14 +8151,14 @@
         <v>0.9619238476953907</v>
       </c>
       <c r="C482" t="n">
-        <v>-0.2748092320354579</v>
+        <v>-0.4204323348167938</v>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="n">
         <v>0.9619238476953907</v>
       </c>
       <c r="F482" t="n">
-        <v>1.130646861259869</v>
+        <v>0.8728425291002493</v>
       </c>
     </row>
     <row r="483">
@@ -8167,14 +8167,14 @@
         <v>0.9639278557114228</v>
       </c>
       <c r="C483" t="n">
-        <v>-0.2906547711218891</v>
+        <v>-0.4159525999961712</v>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="n">
         <v>0.9639278557114228</v>
       </c>
       <c r="F483" t="n">
-        <v>1.140317103086873</v>
+        <v>0.9017899414963138</v>
       </c>
     </row>
     <row r="484">
@@ -8183,14 +8183,14 @@
         <v>0.9659318637274549</v>
       </c>
       <c r="C484" t="n">
-        <v>-0.2992543110917857</v>
+        <v>-0.4117271567976818</v>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="n">
         <v>0.9659318637274549</v>
       </c>
       <c r="F484" t="n">
-        <v>1.149410043893752</v>
+        <v>0.9331720572811455</v>
       </c>
     </row>
     <row r="485">
@@ -8199,14 +8199,14 @@
         <v>0.9679358717434869</v>
       </c>
       <c r="C485" t="n">
-        <v>-0.2987588739236057</v>
+        <v>-0.404619322847527</v>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="n">
         <v>0.9679358717434869</v>
       </c>
       <c r="F485" t="n">
-        <v>1.158710993794512</v>
+        <v>0.9665485632888817</v>
       </c>
     </row>
     <row r="486">
@@ -8215,14 +8215,14 @@
         <v>0.969939879759519</v>
       </c>
       <c r="C486" t="n">
-        <v>-0.2890268031392649</v>
+        <v>-0.3923510992009405</v>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="n">
         <v>0.969939879759519</v>
       </c>
       <c r="F486" t="n">
-        <v>1.169072912665237</v>
+        <v>1.001140358485423</v>
       </c>
     </row>
     <row r="487">
@@ -8231,14 +8231,14 @@
         <v>0.9719438877755511</v>
       </c>
       <c r="C487" t="n">
-        <v>-0.2713428901776956</v>
+        <v>-0.3735863123033751</v>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="n">
         <v>0.9719438877755511</v>
       </c>
       <c r="F487" t="n">
-        <v>1.181309479262365</v>
+        <v>1.035957151255539</v>
       </c>
     </row>
     <row r="488">
@@ -8247,14 +8247,14 @@
         <v>0.9739478957915831</v>
       </c>
       <c r="C488" t="n">
-        <v>-0.2471663286747469</v>
+        <v>-0.34789173370345</v>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="n">
         <v>0.9739478957915831</v>
       </c>
       <c r="F488" t="n">
-        <v>1.196168322580178</v>
+        <v>1.069775345446017</v>
       </c>
     </row>
     <row r="489">
@@ -8263,14 +8263,14 @@
         <v>0.9759519038076151</v>
       </c>
       <c r="C489" t="n">
-        <v>-0.2169458958954751</v>
+        <v>-0.3158251956954103</v>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="n">
         <v>0.9759519038076151</v>
       </c>
       <c r="F489" t="n">
-        <v>1.214258958573434</v>
+        <v>1.10075275147708</v>
       </c>
     </row>
     <row r="490">
@@ -8279,14 +8279,14 @@
         <v>0.9779559118236472</v>
       </c>
       <c r="C490" t="n">
-        <v>-0.1798507668734561</v>
+        <v>-0.2790478213736065</v>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="n">
         <v>0.9779559118236472</v>
       </c>
       <c r="F490" t="n">
-        <v>1.235909972704095</v>
+        <v>1.125878705446644</v>
       </c>
     </row>
     <row r="491">
@@ -8295,14 +8295,14 @@
         <v>0.9799599198396792</v>
       </c>
       <c r="C491" t="n">
-        <v>-0.1343860188648871</v>
+        <v>-0.2400320793339487</v>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="n">
         <v>0.9799599198396792</v>
       </c>
       <c r="F491" t="n">
-        <v>1.261080244103074</v>
+        <v>1.141118333031267</v>
       </c>
     </row>
     <row r="492">
@@ -8311,14 +8311,14 @@
         <v>0.9819639278557113</v>
       </c>
       <c r="C492" t="n">
-        <v>-0.0792112492279424</v>
+        <v>-0.2011140665423388</v>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="n">
         <v>0.9819639278557113</v>
       </c>
       <c r="F492" t="n">
-        <v>1.289449884835998</v>
+        <v>1.143098883945746</v>
       </c>
     </row>
     <row r="493">
@@ -8327,14 +8327,14 @@
         <v>0.9839679358717434</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.01360608736354754</v>
+        <v>-0.1630403696115291</v>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="n">
         <v>0.9839679358717434</v>
       </c>
       <c r="F493" t="n">
-        <v>1.320898509439291</v>
+        <v>1.132246160648063</v>
       </c>
     </row>
     <row r="494">
@@ -8343,14 +8343,14 @@
         <v>0.9859719438877754</v>
       </c>
       <c r="C494" t="n">
-        <v>0.06235853699926817</v>
+        <v>-0.12382066455765</v>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="n">
         <v>0.9859719438877754</v>
       </c>
       <c r="F494" t="n">
-        <v>1.356334550747585</v>
+        <v>1.115567011431546</v>
       </c>
     </row>
     <row r="495">
@@ -8359,14 +8359,14 @@
         <v>0.9879759519038075</v>
       </c>
       <c r="C495" t="n">
-        <v>0.1476045924265222</v>
+        <v>-0.0789517114516427</v>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="n">
         <v>0.9879759519038075</v>
       </c>
       <c r="F495" t="n">
-        <v>1.398529227436303</v>
+        <v>1.106663413956542</v>
       </c>
     </row>
     <row r="496">
@@ -8375,14 +8375,14 @@
         <v>0.9899799599198396</v>
       </c>
       <c r="C496" t="n">
-        <v>0.2397469632739905</v>
+        <v>-0.02342411131391816</v>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="n">
         <v>0.9899799599198396</v>
       </c>
       <c r="F496" t="n">
-        <v>1.452308663830282</v>
+        <v>1.121998079261855</v>
       </c>
     </row>
     <row r="497">
@@ -8391,14 +8391,14 @@
         <v>0.9919839679358716</v>
       </c>
       <c r="C497" t="n">
-        <v>0.3349001516430009</v>
+        <v>0.04507446105121953</v>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="n">
         <v>0.9919839679358716</v>
       </c>
       <c r="F497" t="n">
-        <v>1.522878003229363</v>
+        <v>1.174272176798644</v>
       </c>
     </row>
     <row r="498">
@@ -8407,14 +8407,14 @@
         <v>0.9939879759519037</v>
       </c>
       <c r="C498" t="n">
-        <v>0.4275262758631727</v>
+        <v>0.1233117163884485</v>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="n">
         <v>0.9939879759519037</v>
       </c>
       <c r="F498" t="n">
-        <v>1.611472961268099</v>
+        <v>1.265020496207285</v>
       </c>
     </row>
     <row r="499">
@@ -8423,14 +8423,14 @@
         <v>0.9959919839679358</v>
       </c>
       <c r="C499" t="n">
-        <v>0.5101668768517977</v>
+        <v>0.2016547071523544</v>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="n">
         <v>0.9959919839679358</v>
       </c>
       <c r="F499" t="n">
-        <v>1.709851372078832</v>
+        <v>1.37940215281204</v>
       </c>
     </row>
     <row r="500">
@@ -8439,14 +8439,14 @@
         <v>0.9979959919839678</v>
       </c>
       <c r="C500" t="n">
-        <v>0.5735684487907013</v>
+        <v>0.2660847647883275</v>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="n">
         <v>0.9979959919839678</v>
       </c>
       <c r="F500" t="n">
-        <v>1.798263145771353</v>
+        <v>1.487242998149632</v>
       </c>
     </row>
     <row r="501">
@@ -8455,14 +8455,14 @@
         <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0.6083496548241549</v>
+        <v>0.3026547772989697</v>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="n">
         <v>1</v>
       </c>
       <c r="F501" t="n">
-        <v>1.851470184175528</v>
+        <v>1.553212249994742</v>
       </c>
     </row>
   </sheetData>
